--- a/Schoolsystem2/backend/src/main/resources/scripts/Weight_Dist_Test.xlsx
+++ b/Schoolsystem2/backend/src/main/resources/scripts/Weight_Dist_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\Documents\GitHub\ProgrammierZeugs\AKSEP\Schoolsystem2\backend\src\main\resources\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F53305-C951-496A-B5B2-DA2ACC438882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BDCEB9-052E-4DA1-AF39-9DC5B9CCC14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8496" yWindow="576" windowWidth="14640" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8400" yWindow="576" windowWidth="14640" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -428,27 +428,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BL51"/>
+  <dimension ref="A1:BL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="2.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="28" width="3.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="2" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="28" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="64" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>A12</f>
+        <f>IF(A12="","",A12)</f>
         <v>index\Size</v>
       </c>
       <c r="B1" s="1">
-        <f t="shared" ref="B1:BL1" si="0">B12</f>
+        <f t="shared" ref="B1:BL1" si="0">IF(B12="","",B12)</f>
         <v>1</v>
       </c>
       <c r="C1" s="1">
@@ -555,149 +556,149 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AC1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AL1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AM1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AN1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AR1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AS1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AV1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AW1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AX1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AZ1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BA1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BB1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BC1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BD1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BE1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BF1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BG1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BH1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BI1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BJ1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BK1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BL1" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="AC1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AG1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AH1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AK1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AL1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AM1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AO1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AQ1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AR1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AS1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AT1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AU1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AW1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AX1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AY1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AZ1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BA1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BB1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BC1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BD1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BE1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BF1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BG1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BH1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BI1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BJ1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BK1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BL1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="2" spans="1:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -705,111 +706,111 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <f>SUM(B13:B999)</f>
+        <f t="shared" ref="B2:AB2" si="1">SUM(B13:B999)</f>
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H2" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="K2" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="N2" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="O2" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="P2" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="Q2" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R2" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="S2" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="T2" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="U2" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="V2" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="W2" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="X2" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="Y2" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="Z2" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="AA2" s="2">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="C2" s="2">
-        <f>SUM(C13:C999)</f>
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
-        <f>SUM(D13:D999)</f>
-        <v>9</v>
-      </c>
-      <c r="E2" s="2">
-        <f>SUM(E13:E999)</f>
-        <v>11</v>
-      </c>
-      <c r="F2" s="2">
-        <f>SUM(F13:F999)</f>
-        <v>13</v>
-      </c>
-      <c r="G2" s="2">
-        <f>SUM(G13:G999)</f>
-        <v>15</v>
-      </c>
-      <c r="H2" s="2">
-        <f>SUM(H13:H999)</f>
-        <v>17</v>
-      </c>
-      <c r="I2" s="2">
-        <f>SUM(I13:I999)</f>
-        <v>18</v>
-      </c>
-      <c r="J2" s="2">
-        <f>SUM(J13:J999)</f>
-        <v>19</v>
-      </c>
-      <c r="K2" s="2">
-        <f>SUM(K13:K999)</f>
-        <v>20</v>
-      </c>
-      <c r="L2" s="2">
-        <f>SUM(L13:L999)</f>
-        <v>21</v>
-      </c>
-      <c r="M2" s="2">
-        <f>SUM(M13:M999)</f>
-        <v>22</v>
-      </c>
-      <c r="N2" s="2">
-        <f>SUM(N13:N999)</f>
-        <v>21</v>
-      </c>
-      <c r="O2" s="2">
-        <f>SUM(O13:O999)</f>
-        <v>22</v>
-      </c>
-      <c r="P2" s="2">
-        <f>SUM(P13:P999)</f>
-        <v>23</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>SUM(Q13:Q999)</f>
-        <v>24</v>
-      </c>
-      <c r="R2" s="2">
-        <f>SUM(R13:R999)</f>
-        <v>25</v>
-      </c>
-      <c r="S2" s="2">
-        <f>SUM(S13:S999)</f>
-        <v>26</v>
-      </c>
-      <c r="T2" s="2">
-        <f>SUM(T13:T999)</f>
-        <v>27</v>
-      </c>
-      <c r="U2" s="2">
-        <f>SUM(U13:U999)</f>
-        <v>28</v>
-      </c>
-      <c r="V2" s="2">
-        <f>SUM(V13:V999)</f>
-        <v>29</v>
-      </c>
-      <c r="W2" s="2">
-        <f>SUM(W13:W999)</f>
-        <v>28</v>
-      </c>
-      <c r="X2" s="2">
-        <f>SUM(X13:X999)</f>
-        <v>29</v>
-      </c>
-      <c r="Y2" s="2">
-        <f>SUM(Y13:Y999)</f>
-        <v>30</v>
-      </c>
-      <c r="Z2" s="2">
-        <f>SUM(Z13:Z999)</f>
-        <v>31</v>
-      </c>
-      <c r="AA2" s="2">
-        <f>SUM(AA13:AA999)</f>
-        <v>32</v>
-      </c>
       <c r="AB2" s="2">
-        <f>SUM(AB13:AB999)</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
@@ -818,107 +819,107 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:AB3" si="1">C2-B2</f>
-        <v>-25</v>
+        <f t="shared" ref="C3:AB3" si="2">C2-B2</f>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="X3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1056,111 +1057,111 @@
         <v>0</v>
       </c>
       <c r="B13" s="2">
-        <f>IF(B$12&gt;$A13,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="B13:K22" si="3">IF(B$12&gt;$A13,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
         <v>5</v>
       </c>
       <c r="C13" s="4">
-        <f>IF(C$12&gt;$A13,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D13" s="2">
-        <f>IF(D$12&gt;$A13,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E13" s="2">
-        <f>IF(E$12&gt;$A13,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F13" s="2">
-        <f>IF(F$12&gt;$A13,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G13" s="2">
-        <f>IF(G$12&gt;$A13,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H13" s="2">
-        <f>IF(H$12&gt;$A13,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I13" s="2">
-        <f>IF(I$12&gt;$A13,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J13" s="2">
-        <f>IF(J$12&gt;$A13,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K13" s="2">
-        <f>IF(K$12&gt;$A13,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L13" s="2">
-        <f>IF(L$12&gt;$A13,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="L13:U22" si="4">IF(L$12&gt;$A13,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
         <v>3</v>
       </c>
       <c r="M13" s="2">
-        <f>IF(M$12&gt;$A13,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N13" s="2">
-        <f>IF(N$12&gt;$A13,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="O13" s="2">
-        <f>IF(O$12&gt;$A13,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P13" s="2">
-        <f>IF(P$12&gt;$A13,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="Q13" s="2">
-        <f>IF(Q$12&gt;$A13,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="R13" s="2">
-        <f>IF(R$12&gt;$A13,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="S13" s="2">
-        <f>IF(S$12&gt;$A13,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="T13" s="2">
-        <f>IF(T$12&gt;$A13,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U13" s="2">
-        <f>IF(U$12&gt;$A13,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="V13" s="2">
-        <f>IF(V$12&gt;$A13,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="V13:AB22" si="5">IF(V$12&gt;$A13,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
         <v>3</v>
       </c>
       <c r="W13" s="2">
-        <f>IF(W$12&gt;$A13,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="X13" s="2">
-        <f>IF(X$12&gt;$A13,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="Y13" s="2">
-        <f>IF(Y$12&gt;$A13,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="Z13" s="2">
-        <f>IF(Z$12&gt;$A13,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AA13" s="2">
-        <f>IF(AA$12&gt;$A13,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AB13" s="2">
-        <f>IF(AB$12&gt;$A13,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -1169,111 +1170,111 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="str">
-        <f>IF(B$12&gt;$A14,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C14" s="4">
-        <f>IF(C$12&gt;$A14,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D14" s="2">
-        <f>IF(D$12&gt;$A14,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E14" s="2">
-        <f>IF(E$12&gt;$A14,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F14" s="2">
-        <f>IF(F$12&gt;$A14,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G14" s="2">
-        <f>IF(G$12&gt;$A14,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H14" s="2">
-        <f>IF(H$12&gt;$A14,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <f>IF(I$12&gt;$A14,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J14" s="2">
-        <f>IF(J$12&gt;$A14,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K14" s="2">
-        <f>IF(K$12&gt;$A14,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L14" s="2">
-        <f>IF(L$12&gt;$A14,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="M14" s="2">
-        <f>IF(M$12&gt;$A14,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N14" s="2">
-        <f>IF(N$12&gt;$A14,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="O14" s="2">
-        <f>IF(O$12&gt;$A14,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P14" s="2">
-        <f>IF(P$12&gt;$A14,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="Q14" s="2">
-        <f>IF(Q$12&gt;$A14,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="R14" s="2">
-        <f>IF(R$12&gt;$A14,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="S14" s="2">
-        <f>IF(S$12&gt;$A14,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="T14" s="2">
-        <f>IF(T$12&gt;$A14,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U14" s="2">
-        <f>IF(U$12&gt;$A14,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="V14" s="2">
-        <f>IF(V$12&gt;$A14,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="W14" s="2">
-        <f>IF(W$12&gt;$A14,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="X14" s="2">
-        <f>IF(X$12&gt;$A14,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Y14" s="2">
-        <f>IF(Y$12&gt;$A14,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Z14" s="2">
-        <f>IF(Z$12&gt;$A14,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AA14" s="2">
-        <f>IF(AA$12&gt;$A14,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB14" s="2">
-        <f>IF(AB$12&gt;$A14,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A14+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -1282,111 +1283,111 @@
         <v>2</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f>IF(B$12&gt;$A15,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C15" s="3" t="str">
-        <f>IF(C$12&gt;$A15,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="D15" s="2">
-        <f>IF(D$12&gt;$A15,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E15" s="2">
-        <f>IF(E$12&gt;$A15,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F15" s="2">
-        <f>IF(F$12&gt;$A15,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G15" s="2">
-        <f>IF(G$12&gt;$A15,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H15" s="2">
-        <f>IF(H$12&gt;$A15,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I15" s="2">
-        <f>IF(I$12&gt;$A15,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J15" s="2">
-        <f>IF(J$12&gt;$A15,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K15" s="2">
-        <f>IF(K$12&gt;$A15,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L15" s="2">
-        <f>IF(L$12&gt;$A15,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="M15" s="2">
-        <f>IF(M$12&gt;$A15,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N15" s="2">
-        <f>IF(N$12&gt;$A15,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O15" s="2">
-        <f>IF(O$12&gt;$A15,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="P15" s="2">
-        <f>IF(P$12&gt;$A15,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="Q15" s="2">
-        <f>IF(Q$12&gt;$A15,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="R15" s="2">
-        <f>IF(R$12&gt;$A15,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="S15" s="2">
-        <f>IF(S$12&gt;$A15,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="T15" s="2">
-        <f>IF(T$12&gt;$A15,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U15" s="2">
-        <f>IF(U$12&gt;$A15,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="V15" s="2">
-        <f>IF(V$12&gt;$A15,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="W15" s="2">
-        <f>IF(W$12&gt;$A15,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="X15" s="2">
-        <f>IF(X$12&gt;$A15,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Y15" s="2">
-        <f>IF(Y$12&gt;$A15,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Z15" s="2">
-        <f>IF(Z$12&gt;$A15,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AA15" s="2">
-        <f>IF(AA$12&gt;$A15,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB15" s="2">
-        <f>IF(AB$12&gt;$A15,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A15+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -1395,111 +1396,111 @@
         <v>3</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f>IF(B$12&gt;$A16,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C16" s="3" t="str">
-        <f>IF(C$12&gt;$A16,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="D16" s="3" t="str">
-        <f>IF(D$12&gt;$A16,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E16" s="2">
-        <f>IF(E$12&gt;$A16,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F16" s="2">
-        <f>IF(F$12&gt;$A16,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G16" s="2">
-        <f>IF(G$12&gt;$A16,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H16" s="2">
-        <f>IF(H$12&gt;$A16,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I16" s="2">
-        <f>IF(I$12&gt;$A16,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J16" s="2">
-        <f>IF(J$12&gt;$A16,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K16" s="2">
-        <f>IF(K$12&gt;$A16,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L16" s="2">
-        <f>IF(L$12&gt;$A16,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M16" s="2">
-        <f>IF(M$12&gt;$A16,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N16" s="2">
-        <f>IF(N$12&gt;$A16,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O16" s="2">
-        <f>IF(O$12&gt;$A16,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="P16" s="2">
-        <f>IF(P$12&gt;$A16,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="Q16" s="2">
-        <f>IF(Q$12&gt;$A16,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="R16" s="2">
-        <f>IF(R$12&gt;$A16,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="S16" s="2">
-        <f>IF(S$12&gt;$A16,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="T16" s="2">
-        <f>IF(T$12&gt;$A16,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U16" s="2">
-        <f>IF(U$12&gt;$A16,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="V16" s="2">
-        <f>IF(V$12&gt;$A16,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="W16" s="2">
-        <f>IF(W$12&gt;$A16,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="X16" s="2">
-        <f>IF(X$12&gt;$A16,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Y16" s="2">
-        <f>IF(Y$12&gt;$A16,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Z16" s="2">
-        <f>IF(Z$12&gt;$A16,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AA16" s="2">
-        <f>IF(AA$12&gt;$A16,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB16" s="2">
-        <f>IF(AB$12&gt;$A16,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A16+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -1508,111 +1509,111 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="str">
-        <f>IF(B$12&gt;$A17,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C17" s="3" t="str">
-        <f>IF(C$12&gt;$A17,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="D17" s="3" t="str">
-        <f>IF(D$12&gt;$A17,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E17" s="3" t="str">
-        <f>IF(E$12&gt;$A17,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F17" s="2">
-        <f>IF(F$12&gt;$A17,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G17" s="2">
-        <f>IF(G$12&gt;$A17,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H17" s="2">
-        <f>IF(H$12&gt;$A17,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I17" s="2">
-        <f>IF(I$12&gt;$A17,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J17" s="2">
-        <f>IF(J$12&gt;$A17,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K17" s="2">
-        <f>IF(K$12&gt;$A17,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L17" s="2">
-        <f>IF(L$12&gt;$A17,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M17" s="2">
-        <f>IF(M$12&gt;$A17,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N17" s="2">
-        <f>IF(N$12&gt;$A17,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O17" s="2">
-        <f>IF(O$12&gt;$A17,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="P17" s="2">
-        <f>IF(P$12&gt;$A17,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="Q17" s="2">
-        <f>IF(Q$12&gt;$A17,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="R17" s="2">
-        <f>IF(R$12&gt;$A17,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="S17" s="2">
-        <f>IF(S$12&gt;$A17,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="T17" s="2">
-        <f>IF(T$12&gt;$A17,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U17" s="2">
-        <f>IF(U$12&gt;$A17,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="V17" s="2">
-        <f>IF(V$12&gt;$A17,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="W17" s="2">
-        <f>IF(W$12&gt;$A17,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="X17" s="2">
-        <f>IF(X$12&gt;$A17,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Y17" s="2">
-        <f>IF(Y$12&gt;$A17,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Z17" s="2">
-        <f>IF(Z$12&gt;$A17,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AA17" s="2">
-        <f>IF(AA$12&gt;$A17,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB17" s="2">
-        <f>IF(AB$12&gt;$A17,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A17+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -1621,111 +1622,111 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="str">
-        <f>IF(B$12&gt;$A18,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C18" s="3" t="str">
-        <f>IF(C$12&gt;$A18,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="D18" s="3" t="str">
-        <f>IF(D$12&gt;$A18,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E18" s="3" t="str">
-        <f>IF(E$12&gt;$A18,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F18" s="3" t="str">
-        <f>IF(F$12&gt;$A18,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G18" s="2">
-        <f>IF(G$12&gt;$A18,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H18" s="2">
-        <f>IF(H$12&gt;$A18,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I18" s="2">
-        <f>IF(I$12&gt;$A18,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J18" s="2">
-        <f>IF(J$12&gt;$A18,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K18" s="2">
-        <f>IF(K$12&gt;$A18,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L18" s="2">
-        <f>IF(L$12&gt;$A18,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M18" s="2">
-        <f>IF(M$12&gt;$A18,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N18" s="2">
-        <f>IF(N$12&gt;$A18,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O18" s="2">
-        <f>IF(O$12&gt;$A18,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="P18" s="2">
-        <f>IF(P$12&gt;$A18,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="Q18" s="2">
-        <f>IF(Q$12&gt;$A18,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="R18" s="2">
-        <f>IF(R$12&gt;$A18,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="S18" s="2">
-        <f>IF(S$12&gt;$A18,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="T18" s="2">
-        <f>IF(T$12&gt;$A18,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U18" s="2">
-        <f>IF(U$12&gt;$A18,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="V18" s="2">
-        <f>IF(V$12&gt;$A18,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="W18" s="2">
-        <f>IF(W$12&gt;$A18,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X18" s="2">
-        <f>IF(X$12&gt;$A18,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Y18" s="2">
-        <f>IF(Y$12&gt;$A18,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Z18" s="2">
-        <f>IF(Z$12&gt;$A18,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AA18" s="2">
-        <f>IF(AA$12&gt;$A18,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB18" s="2">
-        <f>IF(AB$12&gt;$A18,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A18+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1734,111 +1735,111 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="str">
-        <f>IF(B$12&gt;$A19,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C19" s="3" t="str">
-        <f>IF(C$12&gt;$A19,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="D19" s="3" t="str">
-        <f>IF(D$12&gt;$A19,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E19" s="3" t="str">
-        <f>IF(E$12&gt;$A19,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F19" s="3" t="str">
-        <f>IF(F$12&gt;$A19,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G19" s="3" t="str">
-        <f>IF(G$12&gt;$A19,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H19" s="2">
-        <f>IF(H$12&gt;$A19,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I19" s="2">
-        <f>IF(I$12&gt;$A19,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J19" s="2">
-        <f>IF(J$12&gt;$A19,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K19" s="2">
-        <f>IF(K$12&gt;$A19,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L19" s="2">
-        <f>IF(L$12&gt;$A19,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M19" s="2">
-        <f>IF(M$12&gt;$A19,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N19" s="2">
-        <f>IF(N$12&gt;$A19,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O19" s="2">
-        <f>IF(O$12&gt;$A19,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P19" s="2">
-        <f>IF(P$12&gt;$A19,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q19" s="2">
-        <f>IF(Q$12&gt;$A19,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R19" s="2">
-        <f>IF(R$12&gt;$A19,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S19" s="2">
-        <f>IF(S$12&gt;$A19,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T19" s="2">
-        <f>IF(T$12&gt;$A19,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U19" s="2">
-        <f>IF(U$12&gt;$A19,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V19" s="2">
-        <f>IF(V$12&gt;$A19,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W19" s="2">
-        <f>IF(W$12&gt;$A19,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X19" s="2">
-        <f>IF(X$12&gt;$A19,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Y19" s="2">
-        <f>IF(Y$12&gt;$A19,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Z19" s="2">
-        <f>IF(Z$12&gt;$A19,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AA19" s="2">
-        <f>IF(AA$12&gt;$A19,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB19" s="2">
-        <f>IF(AB$12&gt;$A19,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A19+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1847,111 +1848,111 @@
         <v>7</v>
       </c>
       <c r="B20" s="3" t="str">
-        <f>IF(B$12&gt;$A20,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C20" s="3" t="str">
-        <f>IF(C$12&gt;$A20,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="D20" s="3" t="str">
-        <f>IF(D$12&gt;$A20,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E20" s="3" t="str">
-        <f>IF(E$12&gt;$A20,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F20" s="3" t="str">
-        <f>IF(F$12&gt;$A20,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G20" s="3" t="str">
-        <f>IF(G$12&gt;$A20,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H20" s="3" t="str">
-        <f>IF(H$12&gt;$A20,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I20" s="2">
-        <f>IF(I$12&gt;$A20,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J20" s="2">
-        <f>IF(J$12&gt;$A20,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K20" s="2">
-        <f>IF(K$12&gt;$A20,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <f>IF(L$12&gt;$A20,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M20" s="2">
-        <f>IF(M$12&gt;$A20,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N20" s="2">
-        <f>IF(N$12&gt;$A20,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O20" s="2">
-        <f>IF(O$12&gt;$A20,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P20" s="2">
-        <f>IF(P$12&gt;$A20,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <f>IF(Q$12&gt;$A20,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R20" s="2">
-        <f>IF(R$12&gt;$A20,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S20" s="2">
-        <f>IF(S$12&gt;$A20,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T20" s="2">
-        <f>IF(T$12&gt;$A20,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U20" s="2">
-        <f>IF(U$12&gt;$A20,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V20" s="2">
-        <f>IF(V$12&gt;$A20,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W20" s="2">
-        <f>IF(W$12&gt;$A20,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X20" s="2">
-        <f>IF(X$12&gt;$A20,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Y20" s="2">
-        <f>IF(Y$12&gt;$A20,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Z20" s="2">
-        <f>IF(Z$12&gt;$A20,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AA20" s="2">
-        <f>IF(AA$12&gt;$A20,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB20" s="2">
-        <f>IF(AB$12&gt;$A20,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A20+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1960,111 +1961,111 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="str">
-        <f>IF(B$12&gt;$A21,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C21" s="3" t="str">
-        <f>IF(C$12&gt;$A21,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="D21" s="3" t="str">
-        <f>IF(D$12&gt;$A21,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E21" s="3" t="str">
-        <f>IF(E$12&gt;$A21,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F21" s="3" t="str">
-        <f>IF(F$12&gt;$A21,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G21" s="3" t="str">
-        <f>IF(G$12&gt;$A21,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H21" s="3" t="str">
-        <f>IF(H$12&gt;$A21,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I21" s="3" t="str">
-        <f>IF(I$12&gt;$A21,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J21" s="4">
-        <f>IF(J$12&gt;$A21,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K21" s="2">
-        <f>IF(K$12&gt;$A21,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L21" s="2">
-        <f>IF(L$12&gt;$A21,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <f>IF(M$12&gt;$A21,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N21" s="2">
-        <f>IF(N$12&gt;$A21,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O21" s="2">
-        <f>IF(O$12&gt;$A21,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P21" s="2">
-        <f>IF(P$12&gt;$A21,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q21" s="2">
-        <f>IF(Q$12&gt;$A21,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R21" s="2">
-        <f>IF(R$12&gt;$A21,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S21" s="2">
-        <f>IF(S$12&gt;$A21,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T21" s="2">
-        <f>IF(T$12&gt;$A21,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U21" s="2">
-        <f>IF(U$12&gt;$A21,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V21" s="2">
-        <f>IF(V$12&gt;$A21,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W21" s="2">
-        <f>IF(W$12&gt;$A21,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X21" s="2">
-        <f>IF(X$12&gt;$A21,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Y21" s="2">
-        <f>IF(Y$12&gt;$A21,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Z21" s="2">
-        <f>IF(Z$12&gt;$A21,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AA21" s="2">
-        <f>IF(AA$12&gt;$A21,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB21" s="2">
-        <f>IF(AB$12&gt;$A21,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A21+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -2073,111 +2074,111 @@
         <v>9</v>
       </c>
       <c r="B22" s="3" t="str">
-        <f>IF(B$12&gt;$A22,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C22" s="3" t="str">
-        <f>IF(C$12&gt;$A22,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="D22" s="3" t="str">
-        <f>IF(D$12&gt;$A22,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E22" s="3" t="str">
-        <f>IF(E$12&gt;$A22,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F22" s="3" t="str">
-        <f>IF(F$12&gt;$A22,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G22" s="3" t="str">
-        <f>IF(G$12&gt;$A22,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H22" s="3" t="str">
-        <f>IF(H$12&gt;$A22,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I22" s="3" t="str">
-        <f>IF(I$12&gt;$A22,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J22" s="3" t="str">
-        <f>IF(J$12&gt;$A22,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K22" s="2">
-        <f>IF(K$12&gt;$A22,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L22" s="2">
-        <f>IF(L$12&gt;$A22,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <f>IF(M$12&gt;$A22,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N22" s="2">
-        <f>IF(N$12&gt;$A22,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O22" s="2">
-        <f>IF(O$12&gt;$A22,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P22" s="2">
-        <f>IF(P$12&gt;$A22,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q22" s="2">
-        <f>IF(Q$12&gt;$A22,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R22" s="2">
-        <f>IF(R$12&gt;$A22,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S22" s="2">
-        <f>IF(S$12&gt;$A22,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T22" s="2">
-        <f>IF(T$12&gt;$A22,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U22" s="2">
-        <f>IF(U$12&gt;$A22,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V22" s="2">
-        <f>IF(V$12&gt;$A22,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W22" s="2">
-        <f>IF(W$12&gt;$A22,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X22" s="2">
-        <f>IF(X$12&gt;$A22,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Y22" s="2">
-        <f>IF(Y$12&gt;$A22,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Z22" s="2">
-        <f>IF(Z$12&gt;$A22,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AA22" s="2">
-        <f>IF(AA$12&gt;$A22,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB22" s="2">
-        <f>IF(AB$12&gt;$A22,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A22+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -2186,111 +2187,111 @@
         <v>10</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f>IF(B$12&gt;$A23,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="B23:K32" si="6">IF(B$12&gt;$A23,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
         <v/>
       </c>
       <c r="C23" s="3" t="str">
-        <f>IF(C$12&gt;$A23,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D23" s="3" t="str">
-        <f>IF(D$12&gt;$A23,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E23" s="3" t="str">
-        <f>IF(E$12&gt;$A23,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F23" s="3" t="str">
-        <f>IF(F$12&gt;$A23,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G23" s="3" t="str">
-        <f>IF(G$12&gt;$A23,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H23" s="3" t="str">
-        <f>IF(H$12&gt;$A23,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I23" s="3" t="str">
-        <f>IF(I$12&gt;$A23,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J23" s="3" t="str">
-        <f>IF(J$12&gt;$A23,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K23" s="3" t="str">
-        <f>IF(K$12&gt;$A23,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L23" s="2">
-        <f>IF(L$12&gt;$A23,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="L23:U32" si="7">IF(L$12&gt;$A23,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <f>IF(M$12&gt;$A23,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N23" s="2">
-        <f>IF(N$12&gt;$A23,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O23" s="2">
-        <f>IF(O$12&gt;$A23,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P23" s="2">
-        <f>IF(P$12&gt;$A23,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q23" s="2">
-        <f>IF(Q$12&gt;$A23,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="R23" s="2">
-        <f>IF(R$12&gt;$A23,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S23" s="2">
-        <f>IF(S$12&gt;$A23,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T23" s="2">
-        <f>IF(T$12&gt;$A23,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U23" s="2">
-        <f>IF(U$12&gt;$A23,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V23" s="2">
-        <f>IF(V$12&gt;$A23,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="V23:AB32" si="8">IF(V$12&gt;$A23,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
         <v>1</v>
       </c>
       <c r="W23" s="2">
-        <f>IF(W$12&gt;$A23,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X23" s="2">
-        <f>IF(X$12&gt;$A23,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y23" s="2">
-        <f>IF(Y$12&gt;$A23,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z23" s="2">
-        <f>IF(Z$12&gt;$A23,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AA23" s="2">
-        <f>IF(AA$12&gt;$A23,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AB23" s="2">
-        <f>IF(AB$12&gt;$A23,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2299,111 +2300,111 @@
         <v>11</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f>IF(B$12&gt;$A24,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C24" s="3" t="str">
-        <f>IF(C$12&gt;$A24,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D24" s="3" t="str">
-        <f>IF(D$12&gt;$A24,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E24" s="3" t="str">
-        <f>IF(E$12&gt;$A24,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F24" s="3" t="str">
-        <f>IF(F$12&gt;$A24,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G24" s="3" t="str">
-        <f>IF(G$12&gt;$A24,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H24" s="3" t="str">
-        <f>IF(H$12&gt;$A24,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I24" s="3" t="str">
-        <f>IF(I$12&gt;$A24,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J24" s="3" t="str">
-        <f>IF(J$12&gt;$A24,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K24" s="3" t="str">
-        <f>IF(K$12&gt;$A24,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L24" s="3" t="str">
-        <f>IF(L$12&gt;$A24,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M24" s="2">
-        <f>IF(M$12&gt;$A24,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N24" s="2">
-        <f>IF(N$12&gt;$A24,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O24" s="2">
-        <f>IF(O$12&gt;$A24,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P24" s="2">
-        <f>IF(P$12&gt;$A24,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q24" s="2">
-        <f>IF(Q$12&gt;$A24,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="R24" s="2">
-        <f>IF(R$12&gt;$A24,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S24" s="2">
-        <f>IF(S$12&gt;$A24,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T24" s="2">
-        <f>IF(T$12&gt;$A24,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U24" s="2">
-        <f>IF(U$12&gt;$A24,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V24" s="2">
-        <f>IF(V$12&gt;$A24,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W24" s="2">
-        <f>IF(W$12&gt;$A24,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X24" s="2">
-        <f>IF(X$12&gt;$A24,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y24" s="2">
-        <f>IF(Y$12&gt;$A24,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z24" s="2">
-        <f>IF(Z$12&gt;$A24,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AA24" s="2">
-        <f>IF(AA$12&gt;$A24,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AB24" s="2">
-        <f>IF(AB$12&gt;$A24,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A24+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2412,111 +2413,111 @@
         <v>12</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f>IF(B$12&gt;$A25,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C25" s="3" t="str">
-        <f>IF(C$12&gt;$A25,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D25" s="3" t="str">
-        <f>IF(D$12&gt;$A25,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E25" s="3" t="str">
-        <f>IF(E$12&gt;$A25,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F25" s="3" t="str">
-        <f>IF(F$12&gt;$A25,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G25" s="3" t="str">
-        <f>IF(G$12&gt;$A25,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H25" s="3" t="str">
-        <f>IF(H$12&gt;$A25,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I25" s="3" t="str">
-        <f>IF(I$12&gt;$A25,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J25" s="3" t="str">
-        <f>IF(J$12&gt;$A25,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K25" s="3" t="str">
-        <f>IF(K$12&gt;$A25,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L25" s="3" t="str">
-        <f>IF(L$12&gt;$A25,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M25" s="3" t="str">
-        <f>IF(M$12&gt;$A25,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N25" s="2">
-        <f>IF(N$12&gt;$A25,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O25" s="2">
-        <f>IF(O$12&gt;$A25,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P25" s="2">
-        <f>IF(P$12&gt;$A25,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q25" s="2">
-        <f>IF(Q$12&gt;$A25,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="R25" s="2">
-        <f>IF(R$12&gt;$A25,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S25" s="2">
-        <f>IF(S$12&gt;$A25,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T25" s="2">
-        <f>IF(T$12&gt;$A25,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U25" s="2">
-        <f>IF(U$12&gt;$A25,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V25" s="2">
-        <f>IF(V$12&gt;$A25,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W25" s="2">
-        <f>IF(W$12&gt;$A25,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X25" s="2">
-        <f>IF(X$12&gt;$A25,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y25" s="2">
-        <f>IF(Y$12&gt;$A25,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z25" s="2">
-        <f>IF(Z$12&gt;$A25,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AA25" s="2">
-        <f>IF(AA$12&gt;$A25,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AB25" s="2">
-        <f>IF(AB$12&gt;$A25,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A25+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2525,111 +2526,111 @@
         <v>13</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f>IF(B$12&gt;$A26,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C26" s="3" t="str">
-        <f>IF(C$12&gt;$A26,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D26" s="3" t="str">
-        <f>IF(D$12&gt;$A26,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E26" s="3" t="str">
-        <f>IF(E$12&gt;$A26,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F26" s="3" t="str">
-        <f>IF(F$12&gt;$A26,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G26" s="3" t="str">
-        <f>IF(G$12&gt;$A26,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H26" s="3" t="str">
-        <f>IF(H$12&gt;$A26,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I26" s="3" t="str">
-        <f>IF(I$12&gt;$A26,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J26" s="3" t="str">
-        <f>IF(J$12&gt;$A26,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K26" s="3" t="str">
-        <f>IF(K$12&gt;$A26,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L26" s="3" t="str">
-        <f>IF(L$12&gt;$A26,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M26" s="3" t="str">
-        <f>IF(M$12&gt;$A26,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N26" s="3" t="str">
-        <f>IF(N$12&gt;$A26,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O26" s="2">
-        <f>IF(O$12&gt;$A26,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P26" s="2">
-        <f>IF(P$12&gt;$A26,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q26" s="2">
-        <f>IF(Q$12&gt;$A26,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="R26" s="2">
-        <f>IF(R$12&gt;$A26,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S26" s="2">
-        <f>IF(S$12&gt;$A26,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T26" s="2">
-        <f>IF(T$12&gt;$A26,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U26" s="2">
-        <f>IF(U$12&gt;$A26,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V26" s="2">
-        <f>IF(V$12&gt;$A26,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W26" s="2">
-        <f>IF(W$12&gt;$A26,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X26" s="2">
-        <f>IF(X$12&gt;$A26,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y26" s="2">
-        <f>IF(Y$12&gt;$A26,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z26" s="2">
-        <f>IF(Z$12&gt;$A26,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AA26" s="2">
-        <f>IF(AA$12&gt;$A26,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AB26" s="2">
-        <f>IF(AB$12&gt;$A26,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A26+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2638,111 +2639,111 @@
         <v>14</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f>IF(B$12&gt;$A27,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C27" s="3" t="str">
-        <f>IF(C$12&gt;$A27,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D27" s="3" t="str">
-        <f>IF(D$12&gt;$A27,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E27" s="3" t="str">
-        <f>IF(E$12&gt;$A27,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F27" s="3" t="str">
-        <f>IF(F$12&gt;$A27,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G27" s="3" t="str">
-        <f>IF(G$12&gt;$A27,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H27" s="3" t="str">
-        <f>IF(H$12&gt;$A27,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I27" s="3" t="str">
-        <f>IF(I$12&gt;$A27,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J27" s="3" t="str">
-        <f>IF(J$12&gt;$A27,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K27" s="3" t="str">
-        <f>IF(K$12&gt;$A27,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L27" s="3" t="str">
-        <f>IF(L$12&gt;$A27,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M27" s="3" t="str">
-        <f>IF(M$12&gt;$A27,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N27" s="3" t="str">
-        <f>IF(N$12&gt;$A27,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O27" s="3" t="str">
-        <f>IF(O$12&gt;$A27,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P27" s="2">
-        <f>IF(P$12&gt;$A27,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q27" s="2">
-        <f>IF(Q$12&gt;$A27,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="R27" s="2">
-        <f>IF(R$12&gt;$A27,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S27" s="2">
-        <f>IF(S$12&gt;$A27,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T27" s="2">
-        <f>IF(T$12&gt;$A27,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U27" s="2">
-        <f>IF(U$12&gt;$A27,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V27" s="2">
-        <f>IF(V$12&gt;$A27,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W27" s="2">
-        <f>IF(W$12&gt;$A27,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X27" s="2">
-        <f>IF(X$12&gt;$A27,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y27" s="2">
-        <f>IF(Y$12&gt;$A27,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z27" s="2">
-        <f>IF(Z$12&gt;$A27,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AA27" s="2">
-        <f>IF(AA$12&gt;$A27,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AB27" s="2">
-        <f>IF(AB$12&gt;$A27,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A27+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2751,111 +2752,111 @@
         <v>15</v>
       </c>
       <c r="B28" s="3" t="str">
-        <f>IF(B$12&gt;$A28,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C28" s="3" t="str">
-        <f>IF(C$12&gt;$A28,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D28" s="3" t="str">
-        <f>IF(D$12&gt;$A28,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E28" s="3" t="str">
-        <f>IF(E$12&gt;$A28,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F28" s="3" t="str">
-        <f>IF(F$12&gt;$A28,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G28" s="3" t="str">
-        <f>IF(G$12&gt;$A28,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H28" s="3" t="str">
-        <f>IF(H$12&gt;$A28,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I28" s="3" t="str">
-        <f>IF(I$12&gt;$A28,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J28" s="3" t="str">
-        <f>IF(J$12&gt;$A28,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K28" s="3" t="str">
-        <f>IF(K$12&gt;$A28,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L28" s="3" t="str">
-        <f>IF(L$12&gt;$A28,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M28" s="3" t="str">
-        <f>IF(M$12&gt;$A28,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N28" s="3" t="str">
-        <f>IF(N$12&gt;$A28,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O28" s="3" t="str">
-        <f>IF(O$12&gt;$A28,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P28" s="3" t="str">
-        <f>IF(P$12&gt;$A28,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q28" s="2">
-        <f>IF(Q$12&gt;$A28,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="R28" s="2">
-        <f>IF(R$12&gt;$A28,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S28" s="2">
-        <f>IF(S$12&gt;$A28,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T28" s="2">
-        <f>IF(T$12&gt;$A28,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U28" s="2">
-        <f>IF(U$12&gt;$A28,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V28" s="2">
-        <f>IF(V$12&gt;$A28,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W28" s="2">
-        <f>IF(W$12&gt;$A28,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X28" s="2">
-        <f>IF(X$12&gt;$A28,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y28" s="2">
-        <f>IF(Y$12&gt;$A28,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z28" s="2">
-        <f>IF(Z$12&gt;$A28,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AA28" s="2">
-        <f>IF(AA$12&gt;$A28,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AB28" s="2">
-        <f>IF(AB$12&gt;$A28,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A28+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2864,111 +2865,111 @@
         <v>16</v>
       </c>
       <c r="B29" s="3" t="str">
-        <f>IF(B$12&gt;$A29,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C29" s="3" t="str">
-        <f>IF(C$12&gt;$A29,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D29" s="3" t="str">
-        <f>IF(D$12&gt;$A29,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E29" s="3" t="str">
-        <f>IF(E$12&gt;$A29,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F29" s="3" t="str">
-        <f>IF(F$12&gt;$A29,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G29" s="3" t="str">
-        <f>IF(G$12&gt;$A29,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H29" s="3" t="str">
-        <f>IF(H$12&gt;$A29,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I29" s="3" t="str">
-        <f>IF(I$12&gt;$A29,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J29" s="3" t="str">
-        <f>IF(J$12&gt;$A29,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K29" s="3" t="str">
-        <f>IF(K$12&gt;$A29,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L29" s="3" t="str">
-        <f>IF(L$12&gt;$A29,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M29" s="3" t="str">
-        <f>IF(M$12&gt;$A29,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N29" s="3" t="str">
-        <f>IF(N$12&gt;$A29,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O29" s="3" t="str">
-        <f>IF(O$12&gt;$A29,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P29" s="3" t="str">
-        <f>IF(P$12&gt;$A29,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q29" s="3" t="str">
-        <f>IF(Q$12&gt;$A29,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R29" s="2">
-        <f>IF(R$12&gt;$A29,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S29" s="2">
-        <f>IF(S$12&gt;$A29,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T29" s="2">
-        <f>IF(T$12&gt;$A29,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U29" s="2">
-        <f>IF(U$12&gt;$A29,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V29" s="2">
-        <f>IF(V$12&gt;$A29,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W29" s="2">
-        <f>IF(W$12&gt;$A29,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X29" s="2">
-        <f>IF(X$12&gt;$A29,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y29" s="2">
-        <f>IF(Y$12&gt;$A29,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z29" s="2">
-        <f>IF(Z$12&gt;$A29,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AA29" s="2">
-        <f>IF(AA$12&gt;$A29,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AB29" s="2">
-        <f>IF(AB$12&gt;$A29,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A29+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2977,111 +2978,111 @@
         <v>17</v>
       </c>
       <c r="B30" s="3" t="str">
-        <f>IF(B$12&gt;$A30,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C30" s="3" t="str">
-        <f>IF(C$12&gt;$A30,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D30" s="3" t="str">
-        <f>IF(D$12&gt;$A30,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E30" s="3" t="str">
-        <f>IF(E$12&gt;$A30,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F30" s="3" t="str">
-        <f>IF(F$12&gt;$A30,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G30" s="3" t="str">
-        <f>IF(G$12&gt;$A30,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H30" s="3" t="str">
-        <f>IF(H$12&gt;$A30,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I30" s="3" t="str">
-        <f>IF(I$12&gt;$A30,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J30" s="3" t="str">
-        <f>IF(J$12&gt;$A30,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K30" s="3" t="str">
-        <f>IF(K$12&gt;$A30,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L30" s="3" t="str">
-        <f>IF(L$12&gt;$A30,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M30" s="3" t="str">
-        <f>IF(M$12&gt;$A30,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N30" s="3" t="str">
-        <f>IF(N$12&gt;$A30,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O30" s="3" t="str">
-        <f>IF(O$12&gt;$A30,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P30" s="3" t="str">
-        <f>IF(P$12&gt;$A30,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q30" s="3" t="str">
-        <f>IF(Q$12&gt;$A30,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R30" s="3" t="str">
-        <f>IF(R$12&gt;$A30,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S30" s="2">
-        <f>IF(S$12&gt;$A30,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T30" s="2">
-        <f>IF(T$12&gt;$A30,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U30" s="2">
-        <f>IF(U$12&gt;$A30,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V30" s="2">
-        <f>IF(V$12&gt;$A30,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W30" s="2">
-        <f>IF(W$12&gt;$A30,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X30" s="2">
-        <f>IF(X$12&gt;$A30,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y30" s="2">
-        <f>IF(Y$12&gt;$A30,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z30" s="2">
-        <f>IF(Z$12&gt;$A30,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AA30" s="2">
-        <f>IF(AA$12&gt;$A30,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AB30" s="2">
-        <f>IF(AB$12&gt;$A30,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A30+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3090,111 +3091,111 @@
         <v>18</v>
       </c>
       <c r="B31" s="3" t="str">
-        <f>IF(B$12&gt;$A31,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C31" s="3" t="str">
-        <f>IF(C$12&gt;$A31,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D31" s="3" t="str">
-        <f>IF(D$12&gt;$A31,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E31" s="3" t="str">
-        <f>IF(E$12&gt;$A31,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F31" s="3" t="str">
-        <f>IF(F$12&gt;$A31,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G31" s="3" t="str">
-        <f>IF(G$12&gt;$A31,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H31" s="3" t="str">
-        <f>IF(H$12&gt;$A31,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I31" s="3" t="str">
-        <f>IF(I$12&gt;$A31,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J31" s="3" t="str">
-        <f>IF(J$12&gt;$A31,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K31" s="3" t="str">
-        <f>IF(K$12&gt;$A31,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L31" s="3" t="str">
-        <f>IF(L$12&gt;$A31,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M31" s="3" t="str">
-        <f>IF(M$12&gt;$A31,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N31" s="3" t="str">
-        <f>IF(N$12&gt;$A31,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O31" s="3" t="str">
-        <f>IF(O$12&gt;$A31,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P31" s="3" t="str">
-        <f>IF(P$12&gt;$A31,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q31" s="3" t="str">
-        <f>IF(Q$12&gt;$A31,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R31" s="3" t="str">
-        <f>IF(R$12&gt;$A31,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S31" s="3" t="str">
-        <f>IF(S$12&gt;$A31,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T31" s="2">
-        <f>IF(T$12&gt;$A31,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U31" s="2">
-        <f>IF(U$12&gt;$A31,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V31" s="2">
-        <f>IF(V$12&gt;$A31,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W31" s="2">
-        <f>IF(W$12&gt;$A31,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X31" s="2">
-        <f>IF(X$12&gt;$A31,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y31" s="2">
-        <f>IF(Y$12&gt;$A31,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z31" s="2">
-        <f>IF(Z$12&gt;$A31,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AA31" s="2">
-        <f>IF(AA$12&gt;$A31,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AB31" s="2">
-        <f>IF(AB$12&gt;$A31,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A31+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3203,111 +3204,111 @@
         <v>19</v>
       </c>
       <c r="B32" s="3" t="str">
-        <f>IF(B$12&gt;$A32,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C32" s="3" t="str">
-        <f>IF(C$12&gt;$A32,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D32" s="3" t="str">
-        <f>IF(D$12&gt;$A32,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E32" s="3" t="str">
-        <f>IF(E$12&gt;$A32,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F32" s="3" t="str">
-        <f>IF(F$12&gt;$A32,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G32" s="3" t="str">
-        <f>IF(G$12&gt;$A32,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H32" s="3" t="str">
-        <f>IF(H$12&gt;$A32,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I32" s="3" t="str">
-        <f>IF(I$12&gt;$A32,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J32" s="3" t="str">
-        <f>IF(J$12&gt;$A32,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K32" s="3" t="str">
-        <f>IF(K$12&gt;$A32,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L32" s="3" t="str">
-        <f>IF(L$12&gt;$A32,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M32" s="3" t="str">
-        <f>IF(M$12&gt;$A32,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N32" s="3" t="str">
-        <f>IF(N$12&gt;$A32,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O32" s="3" t="str">
-        <f>IF(O$12&gt;$A32,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P32" s="3" t="str">
-        <f>IF(P$12&gt;$A32,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q32" s="3" t="str">
-        <f>IF(Q$12&gt;$A32,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R32" s="3" t="str">
-        <f>IF(R$12&gt;$A32,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S32" s="3" t="str">
-        <f>IF(S$12&gt;$A32,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T32" s="3" t="str">
-        <f>IF(T$12&gt;$A32,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U32" s="2">
-        <f>IF(U$12&gt;$A32,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V32" s="2">
-        <f>IF(V$12&gt;$A32,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W32" s="2">
-        <f>IF(W$12&gt;$A32,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X32" s="2">
-        <f>IF(X$12&gt;$A32,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y32" s="2">
-        <f>IF(Y$12&gt;$A32,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z32" s="2">
-        <f>IF(Z$12&gt;$A32,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AA32" s="2">
-        <f>IF(AA$12&gt;$A32,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AB32" s="2">
-        <f>IF(AB$12&gt;$A32,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A32+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3316,111 +3317,111 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="str">
-        <f>IF(B$12&gt;$A33,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="B33:K40" si="9">IF(B$12&gt;$A33,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
         <v/>
       </c>
       <c r="C33" s="3" t="str">
-        <f>IF(C$12&gt;$A33,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D33" s="3" t="str">
-        <f>IF(D$12&gt;$A33,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E33" s="3" t="str">
-        <f>IF(E$12&gt;$A33,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F33" s="3" t="str">
-        <f>IF(F$12&gt;$A33,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G33" s="3" t="str">
-        <f>IF(G$12&gt;$A33,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H33" s="3" t="str">
-        <f>IF(H$12&gt;$A33,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I33" s="3" t="str">
-        <f>IF(I$12&gt;$A33,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J33" s="3" t="str">
-        <f>IF(J$12&gt;$A33,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K33" s="3" t="str">
-        <f>IF(K$12&gt;$A33,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L33" s="3" t="str">
-        <f>IF(L$12&gt;$A33,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="L33:U40" si="10">IF(L$12&gt;$A33,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
         <v/>
       </c>
       <c r="M33" s="3" t="str">
-        <f>IF(M$12&gt;$A33,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N33" s="3" t="str">
-        <f>IF(N$12&gt;$A33,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O33" s="3" t="str">
-        <f>IF(O$12&gt;$A33,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P33" s="3" t="str">
-        <f>IF(P$12&gt;$A33,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Q33" s="3" t="str">
-        <f>IF(Q$12&gt;$A33,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R33" s="3" t="str">
-        <f>IF(R$12&gt;$A33,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S33" s="3" t="str">
-        <f>IF(S$12&gt;$A33,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T33" s="3" t="str">
-        <f>IF(T$12&gt;$A33,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U33" s="3" t="str">
-        <f>IF(U$12&gt;$A33,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="V33" s="2">
-        <f>IF(V$12&gt;$A33,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="V33:AB40" si="11">IF(V$12&gt;$A33,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
         <v>1</v>
       </c>
       <c r="W33" s="2">
-        <f>IF(W$12&gt;$A33,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X33" s="2">
-        <f>IF(X$12&gt;$A33,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Y33" s="2">
-        <f>IF(Y$12&gt;$A33,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z33" s="2">
-        <f>IF(Z$12&gt;$A33,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA33" s="2">
-        <f>IF(AA$12&gt;$A33,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AB33" s="2">
-        <f>IF(AB$12&gt;$A33,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -3429,111 +3430,111 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="str">
-        <f>IF(B$12&gt;$A34,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C34" s="3" t="str">
-        <f>IF(C$12&gt;$A34,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D34" s="3" t="str">
-        <f>IF(D$12&gt;$A34,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E34" s="3" t="str">
-        <f>IF(E$12&gt;$A34,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F34" s="3" t="str">
-        <f>IF(F$12&gt;$A34,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G34" s="3" t="str">
-        <f>IF(G$12&gt;$A34,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H34" s="3" t="str">
-        <f>IF(H$12&gt;$A34,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I34" s="3" t="str">
-        <f>IF(I$12&gt;$A34,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J34" s="3" t="str">
-        <f>IF(J$12&gt;$A34,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K34" s="3" t="str">
-        <f>IF(K$12&gt;$A34,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L34" s="3" t="str">
-        <f>IF(L$12&gt;$A34,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M34" s="3" t="str">
-        <f>IF(M$12&gt;$A34,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N34" s="3" t="str">
-        <f>IF(N$12&gt;$A34,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O34" s="3" t="str">
-        <f>IF(O$12&gt;$A34,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P34" s="3" t="str">
-        <f>IF(P$12&gt;$A34,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Q34" s="3" t="str">
-        <f>IF(Q$12&gt;$A34,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R34" s="3" t="str">
-        <f>IF(R$12&gt;$A34,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S34" s="3" t="str">
-        <f>IF(S$12&gt;$A34,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T34" s="3" t="str">
-        <f>IF(T$12&gt;$A34,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U34" s="3" t="str">
-        <f>IF(U$12&gt;$A34,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="V34" s="3" t="str">
-        <f>IF(V$12&gt;$A34,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W34" s="2">
-        <f>IF(W$12&gt;$A34,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X34" s="2">
-        <f>IF(X$12&gt;$A34,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Y34" s="2">
-        <f>IF(Y$12&gt;$A34,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z34" s="2">
-        <f>IF(Z$12&gt;$A34,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA34" s="2">
-        <f>IF(AA$12&gt;$A34,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AB34" s="2">
-        <f>IF(AB$12&gt;$A34,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A34+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -3542,111 +3543,111 @@
         <v>22</v>
       </c>
       <c r="B35" s="3" t="str">
-        <f>IF(B$12&gt;$A35,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C35" s="3" t="str">
-        <f>IF(C$12&gt;$A35,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D35" s="3" t="str">
-        <f>IF(D$12&gt;$A35,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E35" s="3" t="str">
-        <f>IF(E$12&gt;$A35,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F35" s="3" t="str">
-        <f>IF(F$12&gt;$A35,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G35" s="3" t="str">
-        <f>IF(G$12&gt;$A35,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H35" s="3" t="str">
-        <f>IF(H$12&gt;$A35,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I35" s="3" t="str">
-        <f>IF(I$12&gt;$A35,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J35" s="3" t="str">
-        <f>IF(J$12&gt;$A35,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K35" s="3" t="str">
-        <f>IF(K$12&gt;$A35,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L35" s="3" t="str">
-        <f>IF(L$12&gt;$A35,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M35" s="3" t="str">
-        <f>IF(M$12&gt;$A35,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N35" s="3" t="str">
-        <f>IF(N$12&gt;$A35,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O35" s="3" t="str">
-        <f>IF(O$12&gt;$A35,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P35" s="3" t="str">
-        <f>IF(P$12&gt;$A35,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Q35" s="3" t="str">
-        <f>IF(Q$12&gt;$A35,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R35" s="3" t="str">
-        <f>IF(R$12&gt;$A35,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S35" s="3" t="str">
-        <f>IF(S$12&gt;$A35,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T35" s="3" t="str">
-        <f>IF(T$12&gt;$A35,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U35" s="3" t="str">
-        <f>IF(U$12&gt;$A35,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="V35" s="3" t="str">
-        <f>IF(V$12&gt;$A35,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W35" s="3" t="str">
-        <f>IF(W$12&gt;$A35,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="X35" s="2">
-        <f>IF(X$12&gt;$A35,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Y35" s="2">
-        <f>IF(Y$12&gt;$A35,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z35" s="2">
-        <f>IF(Z$12&gt;$A35,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA35" s="2">
-        <f>IF(AA$12&gt;$A35,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AB35" s="2">
-        <f>IF(AB$12&gt;$A35,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A35+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -3655,111 +3656,111 @@
         <v>23</v>
       </c>
       <c r="B36" s="3" t="str">
-        <f>IF(B$12&gt;$A36,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C36" s="3" t="str">
-        <f>IF(C$12&gt;$A36,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D36" s="3" t="str">
-        <f>IF(D$12&gt;$A36,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E36" s="3" t="str">
-        <f>IF(E$12&gt;$A36,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F36" s="3" t="str">
-        <f>IF(F$12&gt;$A36,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G36" s="3" t="str">
-        <f>IF(G$12&gt;$A36,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H36" s="3" t="str">
-        <f>IF(H$12&gt;$A36,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I36" s="3" t="str">
-        <f>IF(I$12&gt;$A36,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J36" s="3" t="str">
-        <f>IF(J$12&gt;$A36,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K36" s="3" t="str">
-        <f>IF(K$12&gt;$A36,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L36" s="3" t="str">
-        <f>IF(L$12&gt;$A36,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M36" s="3" t="str">
-        <f>IF(M$12&gt;$A36,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N36" s="3" t="str">
-        <f>IF(N$12&gt;$A36,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O36" s="3" t="str">
-        <f>IF(O$12&gt;$A36,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P36" s="3" t="str">
-        <f>IF(P$12&gt;$A36,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Q36" s="3" t="str">
-        <f>IF(Q$12&gt;$A36,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R36" s="3" t="str">
-        <f>IF(R$12&gt;$A36,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S36" s="3" t="str">
-        <f>IF(S$12&gt;$A36,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T36" s="3" t="str">
-        <f>IF(T$12&gt;$A36,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U36" s="3" t="str">
-        <f>IF(U$12&gt;$A36,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="V36" s="3" t="str">
-        <f>IF(V$12&gt;$A36,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W36" s="3" t="str">
-        <f>IF(W$12&gt;$A36,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="X36" s="3" t="str">
-        <f>IF(X$12&gt;$A36,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Y36" s="2">
-        <f>IF(Y$12&gt;$A36,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z36" s="2">
-        <f>IF(Z$12&gt;$A36,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA36" s="2">
-        <f>IF(AA$12&gt;$A36,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AB36" s="2">
-        <f>IF(AB$12&gt;$A36,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A36+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -3768,111 +3769,111 @@
         <v>24</v>
       </c>
       <c r="B37" s="3" t="str">
-        <f>IF(B$12&gt;$A37,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C37" s="3" t="str">
-        <f>IF(C$12&gt;$A37,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D37" s="3" t="str">
-        <f>IF(D$12&gt;$A37,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E37" s="3" t="str">
-        <f>IF(E$12&gt;$A37,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F37" s="3" t="str">
-        <f>IF(F$12&gt;$A37,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G37" s="3" t="str">
-        <f>IF(G$12&gt;$A37,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H37" s="3" t="str">
-        <f>IF(H$12&gt;$A37,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I37" s="3" t="str">
-        <f>IF(I$12&gt;$A37,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J37" s="3" t="str">
-        <f>IF(J$12&gt;$A37,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K37" s="3" t="str">
-        <f>IF(K$12&gt;$A37,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L37" s="3" t="str">
-        <f>IF(L$12&gt;$A37,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M37" s="3" t="str">
-        <f>IF(M$12&gt;$A37,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N37" s="3" t="str">
-        <f>IF(N$12&gt;$A37,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O37" s="3" t="str">
-        <f>IF(O$12&gt;$A37,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P37" s="3" t="str">
-        <f>IF(P$12&gt;$A37,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Q37" s="3" t="str">
-        <f>IF(Q$12&gt;$A37,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R37" s="3" t="str">
-        <f>IF(R$12&gt;$A37,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S37" s="3" t="str">
-        <f>IF(S$12&gt;$A37,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T37" s="3" t="str">
-        <f>IF(T$12&gt;$A37,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U37" s="3" t="str">
-        <f>IF(U$12&gt;$A37,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="V37" s="3" t="str">
-        <f>IF(V$12&gt;$A37,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W37" s="3" t="str">
-        <f>IF(W$12&gt;$A37,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="X37" s="3" t="str">
-        <f>IF(X$12&gt;$A37,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Y37" s="3" t="str">
-        <f>IF(Y$12&gt;$A37,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Z37" s="2">
-        <f>IF(Z$12&gt;$A37,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA37" s="2">
-        <f>IF(AA$12&gt;$A37,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AB37" s="2">
-        <f>IF(AB$12&gt;$A37,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A37+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -3881,111 +3882,111 @@
         <v>25</v>
       </c>
       <c r="B38" s="3" t="str">
-        <f>IF(B$12&gt;$A38,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C38" s="3" t="str">
-        <f>IF(C$12&gt;$A38,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D38" s="3" t="str">
-        <f>IF(D$12&gt;$A38,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E38" s="3" t="str">
-        <f>IF(E$12&gt;$A38,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F38" s="3" t="str">
-        <f>IF(F$12&gt;$A38,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G38" s="3" t="str">
-        <f>IF(G$12&gt;$A38,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H38" s="3" t="str">
-        <f>IF(H$12&gt;$A38,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I38" s="3" t="str">
-        <f>IF(I$12&gt;$A38,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J38" s="3" t="str">
-        <f>IF(J$12&gt;$A38,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K38" s="3" t="str">
-        <f>IF(K$12&gt;$A38,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L38" s="3" t="str">
-        <f>IF(L$12&gt;$A38,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M38" s="3" t="str">
-        <f>IF(M$12&gt;$A38,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N38" s="3" t="str">
-        <f>IF(N$12&gt;$A38,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O38" s="3" t="str">
-        <f>IF(O$12&gt;$A38,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P38" s="3" t="str">
-        <f>IF(P$12&gt;$A38,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Q38" s="3" t="str">
-        <f>IF(Q$12&gt;$A38,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R38" s="3" t="str">
-        <f>IF(R$12&gt;$A38,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S38" s="3" t="str">
-        <f>IF(S$12&gt;$A38,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T38" s="3" t="str">
-        <f>IF(T$12&gt;$A38,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U38" s="3" t="str">
-        <f>IF(U$12&gt;$A38,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="V38" s="3" t="str">
-        <f>IF(V$12&gt;$A38,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W38" s="3" t="str">
-        <f>IF(W$12&gt;$A38,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="X38" s="3" t="str">
-        <f>IF(X$12&gt;$A38,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Y38" s="3" t="str">
-        <f>IF(Y$12&gt;$A38,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Z38" s="3" t="str">
-        <f>IF(Z$12&gt;$A38,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AA38" s="2">
-        <f>IF(AA$12&gt;$A38,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AB38" s="2">
-        <f>IF(AB$12&gt;$A38,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A38+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -3994,111 +3995,111 @@
         <v>26</v>
       </c>
       <c r="B39" s="3" t="str">
-        <f>IF(B$12&gt;$A39,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C39" s="3" t="str">
-        <f>IF(C$12&gt;$A39,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D39" s="3" t="str">
-        <f>IF(D$12&gt;$A39,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E39" s="3" t="str">
-        <f>IF(E$12&gt;$A39,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F39" s="3" t="str">
-        <f>IF(F$12&gt;$A39,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G39" s="3" t="str">
-        <f>IF(G$12&gt;$A39,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H39" s="3" t="str">
-        <f>IF(H$12&gt;$A39,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I39" s="3" t="str">
-        <f>IF(I$12&gt;$A39,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J39" s="3" t="str">
-        <f>IF(J$12&gt;$A39,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K39" s="3" t="str">
-        <f>IF(K$12&gt;$A39,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L39" s="3" t="str">
-        <f>IF(L$12&gt;$A39,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M39" s="3" t="str">
-        <f>IF(M$12&gt;$A39,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N39" s="3" t="str">
-        <f>IF(N$12&gt;$A39,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O39" s="3" t="str">
-        <f>IF(O$12&gt;$A39,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P39" s="3" t="str">
-        <f>IF(P$12&gt;$A39,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Q39" s="3" t="str">
-        <f>IF(Q$12&gt;$A39,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R39" s="3" t="str">
-        <f>IF(R$12&gt;$A39,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S39" s="3" t="str">
-        <f>IF(S$12&gt;$A39,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T39" s="3" t="str">
-        <f>IF(T$12&gt;$A39,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U39" s="3" t="str">
-        <f>IF(U$12&gt;$A39,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="V39" s="3" t="str">
-        <f>IF(V$12&gt;$A39,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W39" s="3" t="str">
-        <f>IF(W$12&gt;$A39,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="X39" s="3" t="str">
-        <f>IF(X$12&gt;$A39,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Y39" s="3" t="str">
-        <f>IF(Y$12&gt;$A39,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Z39" s="3" t="str">
-        <f>IF(Z$12&gt;$A39,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AA39" s="3" t="str">
-        <f>IF(AA$12&gt;$A39,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB39" s="2">
-        <f>IF(AB$12&gt;$A39,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A39+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -4107,184 +4108,112 @@
         <v>27</v>
       </c>
       <c r="B40" s="3" t="str">
-        <f>IF(B$12&gt;$A40,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C40" s="3" t="str">
-        <f>IF(C$12&gt;$A40,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D40" s="3" t="str">
-        <f>IF(D$12&gt;$A40,IF(D$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(D$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E40" s="3" t="str">
-        <f>IF(E$12&gt;$A40,IF(E$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(E$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F40" s="3" t="str">
-        <f>IF(F$12&gt;$A40,IF(F$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(F$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G40" s="3" t="str">
-        <f>IF(G$12&gt;$A40,IF(G$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(G$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H40" s="3" t="str">
-        <f>IF(H$12&gt;$A40,IF(H$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(H$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I40" s="3" t="str">
-        <f>IF(I$12&gt;$A40,IF(I$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(I$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J40" s="3" t="str">
-        <f>IF(J$12&gt;$A40,IF(J$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(J$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K40" s="3" t="str">
-        <f>IF(K$12&gt;$A40,IF(K$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(K$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L40" s="3" t="str">
-        <f>IF(L$12&gt;$A40,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M40" s="3" t="str">
-        <f>IF(M$12&gt;$A40,IF(M$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(M$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N40" s="3" t="str">
-        <f>IF(N$12&gt;$A40,IF(N$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(N$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O40" s="3" t="str">
-        <f>IF(O$12&gt;$A40,IF(O$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(O$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P40" s="3" t="str">
-        <f>IF(P$12&gt;$A40,IF(P$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(P$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Q40" s="3" t="str">
-        <f>IF(Q$12&gt;$A40,IF(Q$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Q$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R40" s="3" t="str">
-        <f>IF(R$12&gt;$A40,IF(R$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(R$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S40" s="3" t="str">
-        <f>IF(S$12&gt;$A40,IF(S$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(S$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T40" s="3" t="str">
-        <f>IF(T$12&gt;$A40,IF(T$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(T$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U40" s="3" t="str">
-        <f>IF(U$12&gt;$A40,IF(U$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(U$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="V40" s="3" t="str">
-        <f>IF(V$12&gt;$A40,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W40" s="3" t="str">
-        <f>IF(W$12&gt;$A40,IF(W$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(W$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="X40" s="3" t="str">
-        <f>IF(X$12&gt;$A40,IF(X$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(X$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Y40" s="3" t="str">
-        <f>IF(Y$12&gt;$A40,IF(Y$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Y$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Z40" s="3" t="str">
-        <f>IF(Z$12&gt;$A40,IF(Z$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(Z$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AA40" s="3" t="str">
-        <f>IF(AA$12&gt;$A40,IF(AA$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AA$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB40" s="3" t="str">
-        <f>IF(AB$12&gt;$A40,IF(AB$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(AB$12+$B$8)+$B$7*($A40+$B$9)))/2,0),1)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
-      <c r="B44" s="3">
-        <f>ROUNDUP(A44*2/3,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>2</v>
-      </c>
-      <c r="B45" s="3">
-        <f t="shared" ref="B45:B51" si="2">ROUNDUP(A45*2/3,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>3</v>
-      </c>
-      <c r="B46" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>4</v>
-      </c>
-      <c r="B47" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>5</v>
-      </c>
-      <c r="B48" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>6</v>
-      </c>
-      <c r="B49" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>7</v>
-      </c>
-      <c r="B50" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>8</v>
-      </c>
-      <c r="B51" s="3">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="11"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Schoolsystem2/backend/src/main/resources/scripts/Weight_Dist_Test.xlsx
+++ b/Schoolsystem2/backend/src/main/resources/scripts/Weight_Dist_Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\Documents\GitHub\ProgrammierZeugs\AKSEP\Schoolsystem2\backend\src\main\resources\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BDCEB9-052E-4DA1-AF39-9DC5B9CCC14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E977BC-E7DD-4959-8AC4-704266774F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="576" windowWidth="14640" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2328" yWindow="576" windowWidth="14640" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>SUMME</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>index\Size</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>index\layer</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>Summe</t>
   </si>
 </sst>
 </file>
@@ -430,17 +445,25 @@
   </sheetPr>
   <dimension ref="A1:BL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="T7" workbookViewId="0">
+      <selection activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="2" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="28" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="64" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="28" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="33" width="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="43" width="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="59" width="3" bestFit="1" customWidth="1"/>
+    <col min="60" max="64" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -576,110 +599,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AJ1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AL1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AM1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AN1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AO1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AP1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AQ1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AR1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AS1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AT1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AU1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AV1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AW1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AX1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AY1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="BA1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="BB1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="BC1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="BD1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="BE1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="BF1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="BG1" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="AH1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
       <c r="BH1" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -706,224 +657,327 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:AB2" si="1">SUM(B13:B999)</f>
+        <f>SUM(B13:B995)</f>
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(C13:C995)</f>
         <v>7</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(D13:D995)</f>
         <v>9</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(E13:E995)</f>
         <v>11</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(F13:F995)</f>
         <v>13</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(G13:G995)</f>
         <v>15</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(H13:H995)</f>
         <v>17</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(I13:I995)</f>
         <v>18</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(J13:J995)</f>
         <v>19</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(K13:K995)</f>
         <v>20</v>
       </c>
       <c r="L2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(L13:L995)</f>
         <v>21</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(M13:M995)</f>
         <v>22</v>
       </c>
       <c r="N2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(N13:N995)</f>
         <v>21</v>
       </c>
       <c r="O2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(O13:O995)</f>
         <v>22</v>
       </c>
       <c r="P2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(P13:P995)</f>
         <v>23</v>
       </c>
       <c r="Q2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(Q13:Q995)</f>
         <v>24</v>
       </c>
       <c r="R2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(R13:R995)</f>
         <v>25</v>
       </c>
       <c r="S2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(S13:S995)</f>
         <v>26</v>
       </c>
       <c r="T2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(T13:T995)</f>
         <v>27</v>
       </c>
       <c r="U2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(U13:U995)</f>
         <v>28</v>
       </c>
       <c r="V2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(V13:V995)</f>
         <v>29</v>
       </c>
       <c r="W2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(W13:W995)</f>
         <v>28</v>
       </c>
       <c r="X2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(X13:X995)</f>
         <v>29</v>
       </c>
       <c r="Y2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(Y13:Y995)</f>
         <v>30</v>
       </c>
       <c r="Z2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(Z13:Z995)</f>
         <v>31</v>
       </c>
       <c r="AA2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(AA13:AA995)</f>
         <v>32</v>
       </c>
       <c r="AB2" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(AB13:AB995)</f>
         <v>33</v>
       </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="3">
+        <f>6+ROUNDDOWN(AH2/2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AJ2" s="3">
+        <f>3+ROUNDDOWN(AH2/2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
     </row>
     <row r="3" spans="1:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:AB3" si="2">C2-B2</f>
+        <f>C2-B2</f>
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D3" si="1">D2-C2</f>
         <v>2</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E3" si="2">E2-D2</f>
         <v>2</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F3" si="3">F2-E2</f>
         <v>2</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G3" si="4">G2-F2</f>
         <v>2</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H3" si="5">H2-G2</f>
         <v>2</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I3" si="6">I2-H2</f>
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J3" si="7">J2-I2</f>
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K3" si="8">K2-J2</f>
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L3" si="9">L2-K2</f>
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M3" si="10">M2-L2</f>
         <v>1</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N3" si="11">N2-M2</f>
         <v>-1</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O3" si="12">O2-N2</f>
         <v>1</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P3" si="13">P2-O2</f>
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Q3" si="14">Q2-P2</f>
         <v>1</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R3" si="15">R2-Q2</f>
         <v>1</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="S3" si="16">S2-R2</f>
         <v>1</v>
       </c>
       <c r="T3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="T3" si="17">T2-S2</f>
         <v>1</v>
       </c>
       <c r="U3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="U3" si="18">U2-T2</f>
         <v>1</v>
       </c>
       <c r="V3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="V3" si="19">V2-U2</f>
         <v>1</v>
       </c>
       <c r="W3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="W3" si="20">W2-V2</f>
         <v>-1</v>
       </c>
       <c r="X3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="X3" si="21">X2-W2</f>
         <v>1</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Y3" si="22">Y2-X2</f>
         <v>1</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Z3" si="23">Z2-Y2</f>
         <v>1</v>
       </c>
       <c r="AA3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AA3" si="24">AA2-Z2</f>
         <v>1</v>
       </c>
       <c r="AB3" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+        <f t="shared" ref="C3:AB3" si="25">AB2-AA2</f>
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="3">
+        <f t="shared" ref="AI3:AI11" si="26">6+ROUNDDOWN(AH3/2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ3" s="3">
+        <f t="shared" ref="AJ3:AJ11" si="27">3+ROUNDDOWN(AH3/2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
     </row>
-    <row r="4" spans="1:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI4" s="3">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="AJ4" s="3">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+    </row>
     <row r="5" spans="1:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
@@ -931,6 +985,40 @@
       <c r="B5" s="2">
         <v>6</v>
       </c>
+      <c r="AH5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="3">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="AJ5" s="3">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
     </row>
     <row r="6" spans="1:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -939,6 +1027,40 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
+      <c r="AH6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="3">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="AJ6" s="3">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
     </row>
     <row r="7" spans="1:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -947,6 +1069,40 @@
       <c r="B7" s="2">
         <v>9</v>
       </c>
+      <c r="AH7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI7" s="3">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="AJ7" s="3">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
     </row>
     <row r="8" spans="1:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -955,6 +1111,40 @@
       <c r="B8" s="2">
         <v>-30</v>
       </c>
+      <c r="AH8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI8" s="3">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="AJ8" s="3">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
     </row>
     <row r="9" spans="1:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -963,9 +1153,113 @@
       <c r="B9" s="2">
         <v>7</v>
       </c>
+      <c r="AH9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AI9" s="3">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="AJ9" s="3">
+        <f t="shared" si="27"/>
+        <v>7</v>
+      </c>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
     </row>
-    <row r="10" spans="1:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH10" s="1">
+        <v>9</v>
+      </c>
+      <c r="AI10" s="3">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f t="shared" si="27"/>
+        <v>7</v>
+      </c>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+    </row>
+    <row r="11" spans="1:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH11" s="1">
+        <v>10</v>
+      </c>
+      <c r="AI11" s="3">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="AJ11" s="3">
+        <f t="shared" si="27"/>
+        <v>8</v>
+      </c>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+    </row>
     <row r="12" spans="1:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
@@ -1051,231 +1345,357 @@
       <c r="AB12" s="2">
         <v>27</v>
       </c>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
     </row>
     <row r="13" spans="1:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>0</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" ref="B13:K22" si="3">IF(B$12&gt;$A13,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="B13:K22" si="28">IF(B$12&gt;$A13,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
         <v>5</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" ref="L13:U22" si="4">IF(L$12&gt;$A13,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="L13:U22" si="29">IF(L$12&gt;$A13,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
         <v>3</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" ref="V13:AB22" si="5">IF(V$12&gt;$A13,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="V13:AB22" si="30">IF(V$12&gt;$A13,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
         <v>3</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AA13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AB13" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
     </row>
     <row r="14" spans="1:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="U14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="W14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="X14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Y14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="AA14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="AB14" s="2">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>6</v>
+      </c>
+      <c r="AO14" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP14" s="3">
+        <v>8</v>
+      </c>
+      <c r="AQ14" s="3">
+        <v>9</v>
+      </c>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="3">
+        <v>2</v>
+      </c>
+      <c r="AW14" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX14" s="3">
+        <v>4</v>
+      </c>
+      <c r="AY14" s="3">
+        <v>5</v>
+      </c>
+      <c r="AZ14" s="3">
+        <v>6</v>
+      </c>
+      <c r="BA14" s="3">
+        <v>7</v>
+      </c>
+      <c r="BB14" s="3">
+        <v>8</v>
+      </c>
+      <c r="BC14" s="3">
+        <v>9</v>
+      </c>
+      <c r="BD14" s="3">
+        <v>10</v>
+      </c>
+      <c r="BE14" s="3">
+        <v>11</v>
+      </c>
+      <c r="BF14" s="3">
+        <v>12</v>
+      </c>
+      <c r="BG14" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1283,112 +1703,186 @@
         <v>2</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="C15" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="AA15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="AB15" s="2">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AO15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AP15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AQ15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AV15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AW15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AX15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AZ15" s="3">
+        <v>5</v>
+      </c>
+      <c r="BA15" s="3">
+        <v>5</v>
+      </c>
+      <c r="BB15" s="3">
+        <v>5</v>
+      </c>
+      <c r="BC15" s="3">
+        <v>5</v>
+      </c>
+      <c r="BD15" s="3">
+        <v>5</v>
+      </c>
+      <c r="BE15" s="3">
+        <v>5</v>
+      </c>
+      <c r="BF15" s="3">
+        <v>5</v>
+      </c>
+      <c r="BG15" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1396,1919 +1890,2463 @@
         <v>3</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="C16" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="D16" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="AA16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>3</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>4</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO16" s="3">
+        <v>4</v>
+      </c>
+      <c r="AP16" s="3">
+        <v>4</v>
+      </c>
+      <c r="AQ16" s="3">
+        <v>4</v>
+      </c>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV16" s="3">
+        <v>3</v>
+      </c>
+      <c r="AW16" s="3">
+        <v>4</v>
+      </c>
+      <c r="AX16" s="3">
+        <v>4</v>
+      </c>
+      <c r="AY16" s="3">
+        <v>4</v>
+      </c>
+      <c r="AZ16" s="3">
+        <v>4</v>
+      </c>
+      <c r="BA16" s="3">
+        <v>4</v>
+      </c>
+      <c r="BB16" s="3">
+        <v>4</v>
+      </c>
+      <c r="BC16" s="3">
+        <v>4</v>
+      </c>
+      <c r="BD16" s="3">
+        <v>4</v>
+      </c>
+      <c r="BE16" s="3">
+        <v>4</v>
+      </c>
+      <c r="BF16" s="3">
+        <v>4</v>
+      </c>
+      <c r="BG16" s="3">
+        <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>4</v>
       </c>
       <c r="B17" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="C17" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="D17" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E17" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="U17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="W17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="X17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="AA17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="AB17" s="2">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AP17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="3">
+        <v>2</v>
+      </c>
+      <c r="AW17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AY17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AZ17" s="3">
+        <v>3</v>
+      </c>
+      <c r="BA17" s="3">
+        <v>3</v>
+      </c>
+      <c r="BB17" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC17" s="3">
+        <v>3</v>
+      </c>
+      <c r="BD17" s="3">
+        <v>3</v>
+      </c>
+      <c r="BE17" s="3">
+        <v>3</v>
+      </c>
+      <c r="BF17" s="3">
+        <v>3</v>
+      </c>
+      <c r="BG17" s="3">
+        <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>5</v>
       </c>
       <c r="B18" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="C18" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="D18" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E18" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F18" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="T18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="W18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="X18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Y18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AA18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>2</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>3</v>
+      </c>
+      <c r="AN18" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO18" s="3">
+        <v>3</v>
+      </c>
+      <c r="AP18" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ18" s="3">
+        <v>3</v>
+      </c>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3">
+        <v>3</v>
+      </c>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="3">
+        <v>2</v>
+      </c>
+      <c r="AY18" s="3">
+        <v>3</v>
+      </c>
+      <c r="AZ18" s="3">
+        <v>2</v>
+      </c>
+      <c r="BA18" s="3">
+        <v>3</v>
+      </c>
+      <c r="BB18" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC18" s="3">
+        <v>3</v>
+      </c>
+      <c r="BD18" s="3">
+        <v>3</v>
+      </c>
+      <c r="BE18" s="3">
+        <v>3</v>
+      </c>
+      <c r="BF18" s="3">
+        <v>3</v>
+      </c>
+      <c r="BG18" s="3">
+        <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>6</v>
       </c>
       <c r="B19" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="C19" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="D19" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E19" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F19" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="G19" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="X19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Y19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AA19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AB19" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO19" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP19" s="3">
+        <v>2</v>
+      </c>
+      <c r="AQ19" s="3">
+        <v>2</v>
+      </c>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3">
+        <v>4</v>
+      </c>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="3">
+        <v>2</v>
+      </c>
+      <c r="BA19" s="3">
+        <v>2</v>
+      </c>
+      <c r="BB19" s="3">
+        <v>2</v>
+      </c>
+      <c r="BC19" s="3">
+        <v>2</v>
+      </c>
+      <c r="BD19" s="3">
+        <v>2</v>
+      </c>
+      <c r="BE19" s="3">
+        <v>2</v>
+      </c>
+      <c r="BF19" s="3">
+        <v>2</v>
+      </c>
+      <c r="BG19" s="3">
+        <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>7</v>
       </c>
       <c r="B20" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="C20" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="D20" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E20" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F20" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="G20" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="H20" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="T20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="U20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="V20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="X20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Y20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AA20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AB20" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="3">
+        <v>2</v>
+      </c>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3">
+        <v>5</v>
+      </c>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA20" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB20" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC20" s="3">
+        <v>2</v>
+      </c>
+      <c r="BD20" s="3">
+        <v>2</v>
+      </c>
+      <c r="BE20" s="3">
+        <v>2</v>
+      </c>
+      <c r="BF20" s="3">
+        <v>2</v>
+      </c>
+      <c r="BG20" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>8</v>
       </c>
       <c r="B21" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="C21" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="D21" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E21" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F21" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="G21" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="H21" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I21" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AA21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3">
+        <v>6</v>
+      </c>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC21" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD21" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE21" s="3">
+        <v>2</v>
+      </c>
+      <c r="BF21" s="3">
+        <v>2</v>
+      </c>
+      <c r="BG21" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>9</v>
       </c>
       <c r="B22" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="C22" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="D22" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E22" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F22" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="G22" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="H22" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I22" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="J22" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="U22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="X22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Y22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Z22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AA22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AB22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3">
+        <v>7</v>
+      </c>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE22" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF22" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG22" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>10</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f t="shared" ref="B23:K32" si="6">IF(B$12&gt;$A23,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="B23:K32" si="31">IF(B$12&gt;$A23,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
         <v/>
       </c>
       <c r="C23" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="D23" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E23" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F23" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="G23" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H23" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I23" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="J23" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K23" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="L23" s="2">
-        <f t="shared" ref="L23:U32" si="7">IF(L$12&gt;$A23,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="L23:U32" si="32">IF(L$12&gt;$A23,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="T23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="U23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" ref="V23:AB32" si="8">IF(V$12&gt;$A23,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="V23:AB32" si="33">IF(V$12&gt;$A23,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
         <v>1</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="X23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Y23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Z23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AA23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AB23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3">
+        <v>8</v>
+      </c>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG23" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>11</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="C24" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="D24" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E24" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F24" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="G24" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H24" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I24" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="J24" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K24" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="L24" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="AH24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI24" s="3">
+        <f>SUM(AI15:AI22)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ24" s="3">
+        <f t="shared" ref="AJ24:AQ24" si="34">SUM(AJ15:AJ22)</f>
+        <v>11</v>
+      </c>
+      <c r="AK24" s="3">
+        <f t="shared" si="34"/>
+        <v>13</v>
+      </c>
+      <c r="AL24" s="3">
+        <f t="shared" si="34"/>
+        <v>15</v>
+      </c>
+      <c r="AM24" s="3">
+        <f t="shared" si="34"/>
+        <v>16</v>
+      </c>
+      <c r="AN24" s="3">
+        <f t="shared" si="34"/>
+        <v>17</v>
+      </c>
+      <c r="AO24" s="3">
+        <f t="shared" si="34"/>
+        <v>18</v>
+      </c>
+      <c r="AP24" s="3">
+        <f t="shared" si="34"/>
+        <v>19</v>
+      </c>
+      <c r="AQ24" s="3">
+        <f t="shared" si="34"/>
+        <v>20</v>
+      </c>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU24" s="3">
+        <f>SUM(AU15:AU22)</f>
+        <v>9</v>
+      </c>
+      <c r="AV24" s="3">
+        <f t="shared" ref="AV24:BG24" si="35">SUM(AV15:AV22)</f>
+        <v>11</v>
+      </c>
+      <c r="AW24" s="3">
+        <f t="shared" si="35"/>
+        <v>13</v>
+      </c>
+      <c r="AX24" s="3">
+        <f t="shared" si="35"/>
+        <v>15</v>
+      </c>
+      <c r="AY24" s="3">
+        <f t="shared" si="35"/>
+        <v>16</v>
+      </c>
+      <c r="AZ24" s="3">
+        <f t="shared" si="35"/>
+        <v>17</v>
+      </c>
+      <c r="BA24" s="3">
+        <f t="shared" si="35"/>
+        <v>18</v>
+      </c>
+      <c r="BB24" s="3">
+        <f t="shared" si="35"/>
+        <v>19</v>
+      </c>
+      <c r="BC24" s="3">
+        <f t="shared" si="35"/>
+        <v>20</v>
+      </c>
+      <c r="BD24" s="3">
+        <f t="shared" si="35"/>
+        <v>21</v>
+      </c>
+      <c r="BE24" s="3">
+        <f t="shared" si="35"/>
+        <v>22</v>
+      </c>
+      <c r="BF24" s="3">
+        <f t="shared" si="35"/>
+        <v>22</v>
+      </c>
+      <c r="BG24" s="3">
+        <f t="shared" si="35"/>
+        <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>12</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="C25" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="D25" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E25" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F25" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="G25" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H25" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I25" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="J25" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K25" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="L25" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="M25" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="T25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="U25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="W25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Y25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>13</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="C26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="D26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="G26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="J26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="L26" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="M26" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N26" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="T26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="U26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="W26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="X26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Y26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Z26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AA26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AB26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>14</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="C27" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="D27" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E27" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F27" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="G27" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H27" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I27" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="J27" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K27" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="L27" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="M27" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N27" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="O27" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="P27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="T27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="U27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="V27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="W27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="X27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Y27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Z27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AA27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AB27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>15</v>
       </c>
       <c r="B28" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="C28" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="D28" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E28" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F28" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="G28" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H28" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I28" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="J28" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K28" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="L28" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="M28" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N28" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="O28" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="P28" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="U28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="W28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="X28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Y28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Z28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AA28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AB28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>16</v>
       </c>
       <c r="B29" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="C29" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="D29" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E29" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F29" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="G29" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H29" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I29" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="J29" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K29" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="L29" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="M29" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N29" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="O29" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="P29" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Q29" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="U29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="W29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="X29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Y29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Z29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AA29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AB29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>17</v>
       </c>
       <c r="B30" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="C30" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="D30" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E30" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F30" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="G30" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H30" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I30" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="J30" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K30" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="L30" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="M30" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N30" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="O30" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="P30" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Q30" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="R30" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="T30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="U30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="W30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="X30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Y30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Z30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AA30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AB30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>18</v>
       </c>
       <c r="B31" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="C31" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="D31" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E31" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F31" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="G31" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H31" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I31" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="J31" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K31" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="L31" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="M31" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N31" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="O31" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="P31" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Q31" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="R31" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="S31" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="T31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="U31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="V31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="W31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="X31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Y31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Z31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AA31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AB31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>19</v>
       </c>
       <c r="B32" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="C32" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="D32" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E32" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F32" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="G32" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H32" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I32" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="J32" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K32" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="L32" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="M32" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N32" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="O32" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="P32" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Q32" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="R32" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="S32" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="T32" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="X32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Y32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Z32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AA32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AB32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
     </row>
@@ -3317,111 +4355,111 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="str">
-        <f t="shared" ref="B33:K40" si="9">IF(B$12&gt;$A33,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="B33:K40" si="36">IF(B$12&gt;$A33,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
         <v/>
       </c>
       <c r="C33" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="D33" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E33" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="F33" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="G33" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="H33" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I33" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J33" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="K33" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="L33" s="3" t="str">
-        <f t="shared" ref="L33:U40" si="10">IF(L$12&gt;$A33,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="L33:U40" si="37">IF(L$12&gt;$A33,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
         <v/>
       </c>
       <c r="M33" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N33" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O33" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="P33" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q33" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="R33" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="S33" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T33" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U33" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="V33" s="2">
-        <f t="shared" ref="V33:AB40" si="11">IF(V$12&gt;$A33,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="V33:AB40" si="38">IF(V$12&gt;$A33,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
         <v>1</v>
       </c>
       <c r="W33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="X33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="Y33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="Z33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="AA33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="AB33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
     </row>
@@ -3430,111 +4468,111 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C34" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="D34" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E34" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="F34" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="G34" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="H34" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I34" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J34" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="K34" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="L34" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M34" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N34" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O34" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="P34" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q34" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="R34" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="S34" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T34" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U34" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="V34" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="W34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="X34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="Y34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="Z34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="AA34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="AB34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
     </row>
@@ -3543,111 +4581,111 @@
         <v>22</v>
       </c>
       <c r="B35" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C35" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="D35" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E35" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="F35" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="G35" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="H35" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I35" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J35" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="K35" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="L35" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M35" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N35" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O35" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="P35" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q35" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="R35" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="S35" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T35" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U35" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="V35" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="W35" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="X35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="Y35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="Z35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="AA35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="AB35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
     </row>
@@ -3656,111 +4694,111 @@
         <v>23</v>
       </c>
       <c r="B36" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C36" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="D36" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E36" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="F36" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="G36" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="H36" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I36" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J36" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="K36" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="L36" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M36" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N36" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O36" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="P36" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q36" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="R36" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="S36" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T36" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U36" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="V36" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="W36" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="X36" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Y36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="Z36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="AA36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="AB36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
     </row>
@@ -3769,111 +4807,111 @@
         <v>24</v>
       </c>
       <c r="B37" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C37" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="D37" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E37" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="F37" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="G37" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="H37" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I37" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J37" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="K37" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="L37" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M37" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N37" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O37" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="P37" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q37" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="R37" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="S37" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T37" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U37" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="V37" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="W37" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="X37" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Y37" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="AA37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="AB37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
     </row>
@@ -3882,111 +4920,111 @@
         <v>25</v>
       </c>
       <c r="B38" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C38" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="D38" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E38" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="F38" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="G38" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="H38" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I38" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J38" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="K38" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="L38" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M38" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N38" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O38" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="P38" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q38" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="R38" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="S38" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T38" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U38" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="V38" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="W38" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="X38" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Y38" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z38" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AA38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="AB38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
     </row>
@@ -3995,111 +5033,111 @@
         <v>26</v>
       </c>
       <c r="B39" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C39" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="D39" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E39" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="F39" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="G39" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="H39" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I39" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J39" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="K39" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="L39" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M39" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N39" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O39" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="P39" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q39" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="R39" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="S39" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T39" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U39" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="V39" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="W39" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="X39" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Y39" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z39" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AA39" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AB39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
     </row>
@@ -4108,111 +5146,111 @@
         <v>27</v>
       </c>
       <c r="B40" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C40" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="D40" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E40" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="F40" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="G40" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="H40" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I40" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J40" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="K40" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="L40" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M40" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N40" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O40" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="P40" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q40" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="R40" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="S40" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T40" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U40" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="V40" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="W40" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="X40" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Y40" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z40" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AA40" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AB40" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>

--- a/Schoolsystem2/backend/src/main/resources/scripts/Weight_Dist_Test.xlsx
+++ b/Schoolsystem2/backend/src/main/resources/scripts/Weight_Dist_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\Documents\GitHub\ProgrammierZeugs\AKSEP\Schoolsystem2\backend\src\main\resources\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E977BC-E7DD-4959-8AC4-704266774F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFCCD7E-0D34-4D03-AD7C-0AF39F604AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2328" yWindow="576" windowWidth="14640" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8400" yWindow="0" windowWidth="14640" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -445,8 +445,8 @@
   </sheetPr>
   <dimension ref="A1:BL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T7" workbookViewId="0">
-      <selection activeCell="AK16" sqref="AK16"/>
+    <sheetView tabSelected="1" topLeftCell="AA10" workbookViewId="0">
+      <selection activeCell="AP26" sqref="AP26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,111 +657,111 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <f>SUM(B13:B995)</f>
+        <f t="shared" ref="B2:AB2" si="1">SUM(B13:B995)</f>
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <f>SUM(C13:C995)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D2" s="2">
-        <f>SUM(D13:D995)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E2" s="2">
-        <f>SUM(E13:E995)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F2" s="2">
-        <f>SUM(F13:F995)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="G2" s="2">
-        <f>SUM(G13:G995)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H2" s="2">
-        <f>SUM(H13:H995)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I2" s="2">
-        <f>SUM(I13:I995)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="J2" s="2">
-        <f>SUM(J13:J995)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="K2" s="2">
-        <f>SUM(K13:K995)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="L2" s="2">
-        <f>SUM(L13:L995)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="M2" s="2">
-        <f>SUM(M13:M995)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="N2" s="2">
-        <f>SUM(N13:N995)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="O2" s="2">
-        <f>SUM(O13:O995)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="P2" s="2">
-        <f>SUM(P13:P995)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="Q2" s="2">
-        <f>SUM(Q13:Q995)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="R2" s="2">
-        <f>SUM(R13:R995)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="S2" s="2">
-        <f>SUM(S13:S995)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="T2" s="2">
-        <f>SUM(T13:T995)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="U2" s="2">
-        <f>SUM(U13:U995)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="V2" s="2">
-        <f>SUM(V13:V995)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="W2" s="2">
-        <f>SUM(W13:W995)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="X2" s="2">
-        <f>SUM(X13:X995)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="Y2" s="2">
-        <f>SUM(Y13:Y995)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="Z2" s="2">
-        <f>SUM(Z13:Z995)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="AA2" s="2">
-        <f>SUM(AA13:AA995)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="AB2" s="2">
-        <f>SUM(AB13:AB995)</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="AH2" s="1">
@@ -808,114 +808,114 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3" si="1">D2-C2</f>
+        <f t="shared" ref="D3" si="2">D2-C2</f>
         <v>2</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3" si="2">E2-D2</f>
+        <f t="shared" ref="E3" si="3">E2-D2</f>
         <v>2</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3" si="3">F2-E2</f>
+        <f t="shared" ref="F3" si="4">F2-E2</f>
         <v>2</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3" si="4">G2-F2</f>
+        <f t="shared" ref="G3" si="5">G2-F2</f>
         <v>2</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3" si="5">H2-G2</f>
+        <f t="shared" ref="H3" si="6">H2-G2</f>
         <v>2</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3" si="6">I2-H2</f>
+        <f t="shared" ref="I3" si="7">I2-H2</f>
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3" si="7">J2-I2</f>
+        <f t="shared" ref="J3" si="8">J2-I2</f>
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3" si="8">K2-J2</f>
+        <f t="shared" ref="K3" si="9">K2-J2</f>
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3" si="9">L2-K2</f>
+        <f t="shared" ref="L3" si="10">L2-K2</f>
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3" si="10">M2-L2</f>
+        <f t="shared" ref="M3" si="11">M2-L2</f>
         <v>1</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" ref="N3" si="11">N2-M2</f>
+        <f t="shared" ref="N3" si="12">N2-M2</f>
         <v>-1</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3" si="12">O2-N2</f>
+        <f t="shared" ref="O3" si="13">O2-N2</f>
         <v>1</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" ref="P3" si="13">P2-O2</f>
+        <f t="shared" ref="P3" si="14">P2-O2</f>
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3" si="14">Q2-P2</f>
+        <f t="shared" ref="Q3" si="15">Q2-P2</f>
         <v>1</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" ref="R3" si="15">R2-Q2</f>
+        <f t="shared" ref="R3" si="16">R2-Q2</f>
         <v>1</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" ref="S3" si="16">S2-R2</f>
+        <f t="shared" ref="S3" si="17">S2-R2</f>
         <v>1</v>
       </c>
       <c r="T3" s="2">
-        <f t="shared" ref="T3" si="17">T2-S2</f>
+        <f t="shared" ref="T3" si="18">T2-S2</f>
         <v>1</v>
       </c>
       <c r="U3" s="2">
-        <f t="shared" ref="U3" si="18">U2-T2</f>
+        <f t="shared" ref="U3" si="19">U2-T2</f>
         <v>1</v>
       </c>
       <c r="V3" s="2">
-        <f t="shared" ref="V3" si="19">V2-U2</f>
+        <f t="shared" ref="V3" si="20">V2-U2</f>
         <v>1</v>
       </c>
       <c r="W3" s="2">
-        <f t="shared" ref="W3" si="20">W2-V2</f>
+        <f t="shared" ref="W3" si="21">W2-V2</f>
         <v>-1</v>
       </c>
       <c r="X3" s="2">
-        <f t="shared" ref="X3" si="21">X2-W2</f>
+        <f t="shared" ref="X3" si="22">X2-W2</f>
         <v>1</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" ref="Y3" si="22">Y2-X2</f>
+        <f t="shared" ref="Y3" si="23">Y2-X2</f>
         <v>1</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" ref="Z3" si="23">Z2-Y2</f>
+        <f t="shared" ref="Z3" si="24">Z2-Y2</f>
         <v>1</v>
       </c>
       <c r="AA3" s="2">
-        <f t="shared" ref="AA3" si="24">AA2-Z2</f>
+        <f t="shared" ref="AA3" si="25">AA2-Z2</f>
         <v>1</v>
       </c>
       <c r="AB3" s="2">
-        <f t="shared" ref="C3:AB3" si="25">AB2-AA2</f>
+        <f t="shared" ref="AB3" si="26">AB2-AA2</f>
         <v>1</v>
       </c>
       <c r="AH3" s="1">
         <v>2</v>
       </c>
       <c r="AI3" s="3">
-        <f t="shared" ref="AI3:AI11" si="26">6+ROUNDDOWN(AH3/2,0)</f>
+        <f t="shared" ref="AI3:AI11" si="27">6+ROUNDDOWN(AH3/2,0)</f>
         <v>7</v>
       </c>
       <c r="AJ3" s="3">
-        <f t="shared" ref="AJ3:AJ11" si="27">3+ROUNDDOWN(AH3/2,0)</f>
+        <f t="shared" ref="AJ3:AJ11" si="28">3+ROUNDDOWN(AH3/2,0)</f>
         <v>4</v>
       </c>
       <c r="AK3" s="3"/>
@@ -947,11 +947,11 @@
         <v>3</v>
       </c>
       <c r="AI4" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="AJ4" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="AK4" s="3"/>
@@ -989,11 +989,11 @@
         <v>4</v>
       </c>
       <c r="AI5" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="AJ5" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="AK5" s="3"/>
@@ -1031,11 +1031,11 @@
         <v>5</v>
       </c>
       <c r="AI6" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="AJ6" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="AK6" s="3"/>
@@ -1073,11 +1073,11 @@
         <v>6</v>
       </c>
       <c r="AI7" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9</v>
       </c>
       <c r="AJ7" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="AK7" s="3"/>
@@ -1115,11 +1115,11 @@
         <v>7</v>
       </c>
       <c r="AI8" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9</v>
       </c>
       <c r="AJ8" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="AK8" s="3"/>
@@ -1157,11 +1157,11 @@
         <v>8</v>
       </c>
       <c r="AI9" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="AJ9" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="AK9" s="3"/>
@@ -1193,11 +1193,11 @@
         <v>9</v>
       </c>
       <c r="AI10" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="AJ10" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="AK10" s="3"/>
@@ -1229,11 +1229,11 @@
         <v>10</v>
       </c>
       <c r="AI11" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>11</v>
       </c>
       <c r="AJ11" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="AK11" s="3"/>
@@ -1377,111 +1377,111 @@
         <v>0</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" ref="B13:K22" si="28">IF(B$12&gt;$A13,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="B13:K22" si="29">IF(B$12&gt;$A13,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
         <v>5</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="28"/>
+        <f>IF(C$12&gt;$A13,IF(C$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(C$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
         <v>4</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" ref="L13:U22" si="29">IF(L$12&gt;$A13,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="L13:U22" si="30">IF(L$12&gt;$A13,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
         <v>3</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" ref="V13:AB22" si="30">IF(V$12&gt;$A13,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="V13:AB22" si="31">IF(V$12&gt;$A13,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A13+$B$9)))/2,0),1)),"")</f>
         <v>3</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AA13" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AB13" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AH13" s="1"/>
@@ -1516,111 +1516,111 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="U14" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="W14" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="X14" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="Y14" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA14" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AB14" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AH14" s="1" t="s">
@@ -1703,111 +1703,111 @@
         <v>2</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C15" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA15" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AB15" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AH15" s="1">
@@ -1890,111 +1890,111 @@
         <v>3</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C16" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="D16" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA16" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AH16" s="1">
@@ -2077,111 +2077,111 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C17" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="D17" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E17" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="U17" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="W17" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="X17" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA17" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AB17" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AH17" s="1">
@@ -2264,111 +2264,111 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C18" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="D18" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E18" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F18" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="T18" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="W18" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="X18" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Y18" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AA18" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AH18" s="1">
@@ -2447,111 +2447,111 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C19" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="D19" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E19" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F19" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G19" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W19" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="X19" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Y19" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AA19" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AB19" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AH19" s="1">
@@ -2622,111 +2622,111 @@
         <v>7</v>
       </c>
       <c r="B20" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C20" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="D20" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E20" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F20" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G20" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H20" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="T20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="U20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="V20" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W20" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="X20" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Y20" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AA20" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AB20" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AH20" s="1">
@@ -2789,111 +2789,111 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C21" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="D21" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E21" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F21" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G21" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H21" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I21" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AA21" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AH21" s="1">
@@ -2948,111 +2948,111 @@
         <v>9</v>
       </c>
       <c r="B22" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C22" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="D22" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E22" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F22" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G22" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H22" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I22" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="J22" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="U22" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="X22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Y22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Z22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AA22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AB22" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AH22" s="1"/>
@@ -3097,111 +3097,111 @@
         <v>10</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f t="shared" ref="B23:K32" si="31">IF(B$12&gt;$A23,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="B23:K32" si="32">IF(B$12&gt;$A23,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
         <v/>
       </c>
       <c r="C23" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="D23" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="E23" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="F23" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G23" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="H23" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I23" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J23" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K23" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="L23" s="2">
-        <f t="shared" ref="L23:U32" si="32">IF(L$12&gt;$A23,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="L23:U32" si="33">IF(L$12&gt;$A23,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T23" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="U23" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" ref="V23:AB32" si="33">IF(V$12&gt;$A23,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="V23:AB32" si="34">IF(V$12&gt;$A23,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A23+$B$9)))/2,0),1)),"")</f>
         <v>1</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="X23" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y23" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Z23" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AA23" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AB23" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AH23" s="1"/>
@@ -3242,111 +3242,111 @@
         <v>11</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="C24" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="D24" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="E24" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="F24" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G24" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="H24" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I24" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J24" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K24" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="L24" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="P24" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AH24" s="1" t="s">
@@ -3357,35 +3357,35 @@
         <v>9</v>
       </c>
       <c r="AJ24" s="3">
-        <f t="shared" ref="AJ24:AQ24" si="34">SUM(AJ15:AJ22)</f>
+        <f t="shared" ref="AJ24:AQ24" si="35">SUM(AJ15:AJ22)</f>
         <v>11</v>
       </c>
       <c r="AK24" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>13</v>
       </c>
       <c r="AL24" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="AM24" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>16</v>
       </c>
       <c r="AN24" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>17</v>
       </c>
       <c r="AO24" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>18</v>
       </c>
       <c r="AP24" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>19</v>
       </c>
       <c r="AQ24" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>20</v>
       </c>
       <c r="AR24" s="3"/>
@@ -3398,51 +3398,51 @@
         <v>9</v>
       </c>
       <c r="AV24" s="3">
-        <f t="shared" ref="AV24:BG24" si="35">SUM(AV15:AV22)</f>
+        <f t="shared" ref="AV24:BG24" si="36">SUM(AV15:AV22)</f>
         <v>11</v>
       </c>
       <c r="AW24" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>13</v>
       </c>
       <c r="AX24" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>15</v>
       </c>
       <c r="AY24" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>16</v>
       </c>
       <c r="AZ24" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>17</v>
       </c>
       <c r="BA24" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>18</v>
       </c>
       <c r="BB24" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>19</v>
       </c>
       <c r="BC24" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>20</v>
       </c>
       <c r="BD24" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>21</v>
       </c>
       <c r="BE24" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>22</v>
       </c>
       <c r="BF24" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>22</v>
       </c>
       <c r="BG24" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>23</v>
       </c>
     </row>
@@ -3451,111 +3451,111 @@
         <v>12</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="C25" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="D25" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="E25" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="F25" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G25" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="H25" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I25" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J25" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K25" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="L25" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M25" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T25" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="U25" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="W25" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y25" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -3564,111 +3564,111 @@
         <v>13</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="C26" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="D26" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="E26" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="F26" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G26" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="H26" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I26" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J26" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K26" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="L26" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M26" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N26" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="P26" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T26" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="U26" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="W26" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="X26" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y26" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Z26" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AA26" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AB26" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -3677,111 +3677,111 @@
         <v>14</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="C27" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="D27" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="E27" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="F27" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G27" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="H27" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I27" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J27" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K27" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="L27" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M27" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N27" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O27" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="P27" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T27" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="U27" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="V27" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="W27" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="X27" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y27" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Z27" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AA27" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AB27" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -3790,111 +3790,111 @@
         <v>15</v>
       </c>
       <c r="B28" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="C28" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="D28" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="E28" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="F28" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G28" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="H28" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I28" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J28" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K28" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="L28" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M28" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N28" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O28" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="P28" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="U28" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="W28" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="X28" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y28" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Z28" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AA28" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AB28" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -3903,111 +3903,111 @@
         <v>16</v>
       </c>
       <c r="B29" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="C29" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="D29" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="E29" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="F29" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G29" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="H29" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I29" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J29" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K29" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="L29" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M29" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N29" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O29" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="P29" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Q29" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="U29" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="W29" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="X29" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y29" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Z29" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AA29" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AB29" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -4016,111 +4016,111 @@
         <v>17</v>
       </c>
       <c r="B30" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="C30" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="D30" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="E30" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="F30" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G30" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="H30" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I30" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J30" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K30" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="L30" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M30" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N30" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O30" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="P30" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Q30" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="R30" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T30" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="U30" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="W30" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="X30" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y30" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Z30" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AA30" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AB30" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -4129,111 +4129,111 @@
         <v>18</v>
       </c>
       <c r="B31" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="C31" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="D31" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="E31" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="F31" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G31" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="H31" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I31" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J31" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K31" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="L31" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M31" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N31" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O31" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="P31" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Q31" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="R31" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="S31" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="T31" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="U31" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="V31" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="W31" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="X31" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y31" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Z31" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AA31" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AB31" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -4242,111 +4242,111 @@
         <v>19</v>
       </c>
       <c r="B32" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="C32" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="D32" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="E32" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="F32" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G32" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="H32" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I32" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J32" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K32" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="L32" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M32" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N32" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O32" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="P32" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Q32" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="R32" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="S32" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="T32" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U32" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="X32" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y32" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Z32" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AA32" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AB32" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -4355,111 +4355,111 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="str">
-        <f t="shared" ref="B33:K40" si="36">IF(B$12&gt;$A33,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="B33:K40" si="37">IF(B$12&gt;$A33,IF(B$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(B$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
         <v/>
       </c>
       <c r="C33" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="D33" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E33" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F33" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G33" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H33" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I33" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J33" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K33" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L33" s="3" t="str">
-        <f t="shared" ref="L33:U40" si="37">IF(L$12&gt;$A33,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="L33:U40" si="38">IF(L$12&gt;$A33,IF(L$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(L$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
         <v/>
       </c>
       <c r="M33" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N33" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="O33" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P33" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q33" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="R33" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S33" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="T33" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U33" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="V33" s="2">
-        <f t="shared" ref="V33:AB40" si="38">IF(V$12&gt;$A33,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
+        <f t="shared" ref="V33:AB40" si="39">IF(V$12&gt;$A33,IF(V$12=1,5,MAX($B$5-ROUNDDOWN((SQRT($B$6*(V$12+$B$8)+$B$7*($A33+$B$9)))/2,0),1)),"")</f>
         <v>1</v>
       </c>
       <c r="W33" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="X33" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="Y33" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="Z33" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AA33" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AB33" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -4468,111 +4468,111 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C34" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="D34" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E34" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F34" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G34" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H34" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I34" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J34" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K34" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L34" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M34" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N34" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="O34" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P34" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q34" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="R34" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S34" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="T34" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U34" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="V34" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="W34" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="X34" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="Y34" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="Z34" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AA34" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AB34" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -4581,111 +4581,111 @@
         <v>22</v>
       </c>
       <c r="B35" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C35" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="D35" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E35" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F35" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G35" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H35" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I35" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J35" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K35" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L35" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M35" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N35" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="O35" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P35" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q35" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="R35" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S35" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="T35" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U35" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="V35" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="W35" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="X35" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="Y35" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="Z35" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AA35" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AB35" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -4694,111 +4694,111 @@
         <v>23</v>
       </c>
       <c r="B36" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C36" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="D36" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E36" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F36" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G36" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H36" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I36" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J36" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K36" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L36" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M36" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N36" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="O36" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P36" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q36" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="R36" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S36" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="T36" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U36" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="V36" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="W36" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="X36" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="Y36" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="Z36" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AA36" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AB36" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -4807,111 +4807,111 @@
         <v>24</v>
       </c>
       <c r="B37" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C37" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="D37" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E37" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F37" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G37" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H37" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I37" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J37" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K37" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L37" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M37" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N37" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="O37" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P37" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q37" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="R37" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S37" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="T37" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U37" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="V37" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="W37" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="X37" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="Y37" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="Z37" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AA37" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AB37" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -4920,111 +4920,111 @@
         <v>25</v>
       </c>
       <c r="B38" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C38" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="D38" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E38" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F38" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G38" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H38" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I38" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J38" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K38" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L38" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M38" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N38" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="O38" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P38" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q38" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="R38" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S38" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="T38" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U38" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="V38" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="W38" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="X38" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="Y38" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="Z38" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA38" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AB38" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -5033,111 +5033,111 @@
         <v>26</v>
       </c>
       <c r="B39" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C39" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="D39" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E39" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F39" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G39" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H39" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I39" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J39" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K39" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L39" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M39" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N39" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="O39" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P39" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q39" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="R39" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S39" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="T39" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U39" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="V39" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="W39" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="X39" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="Y39" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="Z39" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA39" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AB39" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -5146,111 +5146,111 @@
         <v>27</v>
       </c>
       <c r="B40" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C40" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="D40" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E40" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F40" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G40" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H40" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I40" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J40" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K40" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L40" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M40" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N40" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="O40" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P40" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q40" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="R40" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S40" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="T40" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U40" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="V40" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="W40" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="X40" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="Y40" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="Z40" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AA40" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AB40" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
     </row>
